--- a/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
+++ b/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="607">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -909,6 +909,9 @@
     <t>cmip6.ocean.advection.lateral_tracers.name</t>
   </si>
   <si>
+    <t>Sweby</t>
+  </si>
+  <si>
     <t>4.3.5 - Passive Tracers</t>
   </si>
   <si>
@@ -1174,6 +1177,9 @@
   </si>
   <si>
     <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.type</t>
+  </si>
+  <si>
+    <t>Constant</t>
   </si>
   <si>
     <t>5.6.2 - Constant Coefficient</t>
@@ -5366,11 +5372,13 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
-      <c r="B44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -5387,7 +5395,7 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -5399,7 +5407,7 @@
         <v>38</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
@@ -5407,7 +5415,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -5424,7 +5432,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
@@ -5436,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -5444,10 +5452,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -5456,12 +5464,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -5478,7 +5486,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -5490,7 +5498,7 @@
         <v>31</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -5498,7 +5506,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -5515,7 +5523,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -5527,7 +5535,7 @@
         <v>92</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -5580,10 +5588,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -5592,10 +5600,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -5604,12 +5612,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -5626,7 +5634,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -5638,7 +5646,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -5646,7 +5654,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -5663,7 +5671,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -5675,7 +5683,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -5683,10 +5691,10 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5695,12 +5703,12 @@
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>26</v>
@@ -5717,7 +5725,7 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>1</v>
@@ -5729,17 +5737,17 @@
         <v>38</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -5756,7 +5764,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -5768,17 +5776,17 @@
         <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -5795,7 +5803,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -5807,20 +5815,20 @@
         <v>38</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -5829,12 +5837,12 @@
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
       <c r="B32" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -5851,7 +5859,7 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -5863,17 +5871,17 @@
         <v>38</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>26</v>
@@ -5890,7 +5898,7 @@
     </row>
     <row r="39" spans="2:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
@@ -5902,7 +5910,7 @@
         <v>139</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="24" customHeight="1">
@@ -5910,7 +5918,7 @@
     </row>
     <row r="42" spans="2:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>26</v>
@@ -5927,7 +5935,7 @@
     </row>
     <row r="43" spans="2:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>0</v>
@@ -5939,7 +5947,7 @@
         <v>31</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="24" customHeight="1">
@@ -5947,7 +5955,7 @@
     </row>
     <row r="46" spans="2:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -5964,7 +5972,7 @@
     </row>
     <row r="47" spans="2:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -5976,17 +5984,17 @@
         <v>31</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -6003,7 +6011,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>1</v>
@@ -6015,7 +6023,7 @@
         <v>92</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -6023,10 +6031,10 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -6035,12 +6043,12 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -6057,7 +6065,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -6069,7 +6077,7 @@
         <v>92</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -6079,7 +6087,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -6096,7 +6104,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -6108,7 +6116,7 @@
         <v>92</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -6116,10 +6124,10 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -6128,12 +6136,12 @@
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -6150,7 +6158,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -6162,17 +6170,17 @@
         <v>38</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -6189,7 +6197,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -6201,17 +6209,17 @@
         <v>38</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
       <c r="B76" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>26</v>
@@ -6228,7 +6236,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -6240,20 +6248,20 @@
         <v>38</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6262,12 +6270,12 @@
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1">
       <c r="B84" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>26</v>
@@ -6284,7 +6292,7 @@
     </row>
     <row r="87" spans="1:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>1</v>
@@ -6296,15 +6304,17 @@
         <v>38</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="24" customHeight="1">
-      <c r="B88" s="13"/>
+      <c r="B88" s="13" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>26</v>
@@ -6321,7 +6331,7 @@
     </row>
     <row r="91" spans="1:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>0</v>
@@ -6333,15 +6343,17 @@
         <v>139</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="24" customHeight="1">
-      <c r="B92" s="13"/>
+      <c r="B92" s="13">
+        <v>600</v>
+      </c>
     </row>
     <row r="94" spans="1:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>26</v>
@@ -6358,7 +6370,7 @@
     </row>
     <row r="95" spans="1:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>0</v>
@@ -6370,7 +6382,7 @@
         <v>31</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="24" customHeight="1">
@@ -6378,7 +6390,7 @@
     </row>
     <row r="98" spans="1:6" ht="24" customHeight="1">
       <c r="B98" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>26</v>
@@ -6395,7 +6407,7 @@
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="B99" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C99" s="11" t="b">
         <v>1</v>
@@ -6407,15 +6419,17 @@
         <v>139</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
-      <c r="B100" s="13"/>
+      <c r="B100" s="13">
+        <v>600</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>26</v>
@@ -6432,7 +6446,7 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
@@ -6444,7 +6458,7 @@
         <v>92</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
@@ -6452,10 +6466,10 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6464,12 +6478,12 @@
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
       <c r="B108" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1">
       <c r="B110" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>26</v>
@@ -6486,7 +6500,7 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="B111" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C111" s="11" t="b">
         <v>1</v>
@@ -6498,17 +6512,17 @@
         <v>38</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
       <c r="B112" s="13" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>26</v>
@@ -6525,7 +6539,7 @@
     </row>
     <row r="115" spans="2:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>0</v>
@@ -6537,7 +6551,7 @@
         <v>139</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="24" customHeight="1">
@@ -6545,7 +6559,7 @@
     </row>
     <row r="118" spans="2:6" ht="24" customHeight="1">
       <c r="B118" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>26</v>
@@ -6562,7 +6576,7 @@
     </row>
     <row r="119" spans="2:6" ht="24" customHeight="1">
       <c r="B119" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C119" s="11" t="b">
         <v>1</v>
@@ -6574,17 +6588,17 @@
         <v>31</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="24" customHeight="1">
       <c r="B120" s="13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="24" customHeight="1">
       <c r="B122" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>26</v>
@@ -6601,7 +6615,7 @@
     </row>
     <row r="123" spans="2:6" ht="24" customHeight="1">
       <c r="B123" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C123" s="11" t="b">
         <v>1</v>
@@ -6613,12 +6627,12 @@
         <v>31</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="24" customHeight="1">
       <c r="B124" s="13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -6698,10 +6712,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -6710,10 +6724,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -6722,12 +6736,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -6744,7 +6758,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -6756,7 +6770,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -6764,10 +6778,10 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6776,12 +6790,12 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -6798,7 +6812,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -6810,7 +6824,7 @@
         <v>92</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -6818,10 +6832,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6830,12 +6844,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -6852,7 +6866,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -6864,17 +6878,17 @@
         <v>38</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -6891,7 +6905,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
@@ -6903,7 +6917,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
@@ -6911,7 +6925,7 @@
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -6928,7 +6942,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -6940,7 +6954,7 @@
         <v>139</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -6948,7 +6962,7 @@
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -6965,7 +6979,7 @@
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -6977,20 +6991,20 @@
         <v>31</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -6999,12 +7013,12 @@
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>26</v>
@@ -7021,7 +7035,7 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C43" s="11" t="b">
         <v>1</v>
@@ -7033,17 +7047,17 @@
         <v>38</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -7060,7 +7074,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>0</v>
@@ -7072,7 +7086,7 @@
         <v>78</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
@@ -7080,7 +7094,7 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>26</v>
@@ -7097,7 +7111,7 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C51" s="11" t="b">
         <v>0</v>
@@ -7109,7 +7123,7 @@
         <v>139</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
@@ -7117,7 +7131,7 @@
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>26</v>
@@ -7134,7 +7148,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -7146,20 +7160,20 @@
         <v>31</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
       <c r="B56" s="13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -7168,12 +7182,12 @@
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
       <c r="B60" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -7190,7 +7204,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>1</v>
@@ -7202,17 +7216,17 @@
         <v>38</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>26</v>
@@ -7229,7 +7243,7 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C67" s="11" t="b">
         <v>1</v>
@@ -7241,17 +7255,17 @@
         <v>31</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -7268,7 +7282,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -7280,7 +7294,7 @@
         <v>92</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
@@ -7288,7 +7302,7 @@
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -7305,7 +7319,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -7317,7 +7331,7 @@
         <v>92</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -7325,10 +7339,10 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -7337,12 +7351,12 @@
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">
       <c r="B80" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="24" customHeight="1">
       <c r="B82" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>26</v>
@@ -7359,7 +7373,7 @@
     </row>
     <row r="83" spans="2:6" ht="24" customHeight="1">
       <c r="B83" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C83" s="11" t="b">
         <v>1</v>
@@ -7371,7 +7385,7 @@
         <v>38</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="24" customHeight="1">
@@ -7379,7 +7393,7 @@
     </row>
     <row r="86" spans="2:6" ht="24" customHeight="1">
       <c r="B86" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>26</v>
@@ -7396,7 +7410,7 @@
     </row>
     <row r="87" spans="2:6" ht="24" customHeight="1">
       <c r="B87" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C87" s="11" t="b">
         <v>0</v>
@@ -7408,7 +7422,7 @@
         <v>139</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="24" customHeight="1">
@@ -7416,7 +7430,7 @@
     </row>
     <row r="90" spans="2:6" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>26</v>
@@ -7433,7 +7447,7 @@
     </row>
     <row r="91" spans="2:6" ht="24" customHeight="1">
       <c r="B91" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C91" s="11" t="b">
         <v>1</v>
@@ -7445,7 +7459,7 @@
         <v>31</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="24" customHeight="1">
@@ -7453,7 +7467,7 @@
     </row>
     <row r="94" spans="2:6" ht="24" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>26</v>
@@ -7470,7 +7484,7 @@
     </row>
     <row r="95" spans="2:6" ht="24" customHeight="1">
       <c r="B95" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C95" s="11" t="b">
         <v>1</v>
@@ -7482,20 +7496,20 @@
         <v>31</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="24" customHeight="1">
       <c r="B96" s="13" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="24" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -7504,12 +7518,12 @@
     </row>
     <row r="100" spans="1:6" ht="24" customHeight="1">
       <c r="B100" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="24" customHeight="1">
       <c r="B102" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>26</v>
@@ -7526,7 +7540,7 @@
     </row>
     <row r="103" spans="1:6" ht="24" customHeight="1">
       <c r="B103" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C103" s="11" t="b">
         <v>1</v>
@@ -7538,7 +7552,7 @@
         <v>38</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="24" customHeight="1">
@@ -7546,7 +7560,7 @@
     </row>
     <row r="106" spans="1:6" ht="24" customHeight="1">
       <c r="B106" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>26</v>
@@ -7563,7 +7577,7 @@
     </row>
     <row r="107" spans="1:6" ht="24" customHeight="1">
       <c r="B107" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C107" s="11" t="b">
         <v>0</v>
@@ -7575,7 +7589,7 @@
         <v>139</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="24" customHeight="1">
@@ -7583,7 +7597,7 @@
     </row>
     <row r="110" spans="1:6" ht="24" customHeight="1">
       <c r="B110" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>26</v>
@@ -7600,7 +7614,7 @@
     </row>
     <row r="111" spans="1:6" ht="24" customHeight="1">
       <c r="B111" s="10" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C111" s="11" t="b">
         <v>1</v>
@@ -7612,7 +7626,7 @@
         <v>31</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="24" customHeight="1">
@@ -7620,7 +7634,7 @@
     </row>
     <row r="114" spans="2:6" ht="24" customHeight="1">
       <c r="B114" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>26</v>
@@ -7637,7 +7651,7 @@
     </row>
     <row r="115" spans="2:6" ht="24" customHeight="1">
       <c r="B115" s="10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C115" s="11" t="b">
         <v>1</v>
@@ -7649,12 +7663,12 @@
         <v>31</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="24" customHeight="1">
       <c r="B116" s="13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7718,10 +7732,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -7730,10 +7744,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -7742,12 +7756,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -7764,7 +7778,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -7776,7 +7790,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -7784,7 +7798,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -7801,7 +7815,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -7813,17 +7827,17 @@
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -7840,7 +7854,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>1</v>
@@ -7852,7 +7866,7 @@
         <v>92</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
@@ -7860,10 +7874,10 @@
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7872,12 +7886,12 @@
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -7894,7 +7908,7 @@
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -7906,7 +7920,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1">
@@ -7914,7 +7928,7 @@
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -7931,7 +7945,7 @@
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -7943,17 +7957,17 @@
         <v>38</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -7970,7 +7984,7 @@
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -7982,7 +7996,7 @@
         <v>139</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1">
@@ -7992,7 +8006,7 @@
     </row>
     <row r="34" spans="2:6" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>26</v>
@@ -8009,7 +8023,7 @@
     </row>
     <row r="35" spans="2:6" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>1</v>
@@ -8021,12 +8035,12 @@
         <v>31</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8078,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -8076,10 +8090,10 @@
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8088,12 +8102,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>26</v>
@@ -8110,7 +8124,7 @@
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="B7" s="10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C7" s="11" t="b">
         <v>1</v>
@@ -8122,7 +8136,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1">
@@ -8130,7 +8144,7 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>26</v>
@@ -8147,7 +8161,7 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="B11" s="10" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C11" s="11" t="b">
         <v>1</v>
@@ -8159,7 +8173,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1">
@@ -8167,7 +8181,7 @@
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>26</v>
@@ -8184,7 +8198,7 @@
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C15" s="11" t="b">
         <v>0</v>
@@ -8196,17 +8210,17 @@
         <v>31</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="24" customHeight="1">
       <c r="B18" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>26</v>
@@ -8223,7 +8237,7 @@
     </row>
     <row r="19" spans="2:6" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C19" s="11" t="b">
         <v>0</v>
@@ -8235,7 +8249,7 @@
         <v>31</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="24" customHeight="1">
@@ -8243,7 +8257,7 @@
     </row>
     <row r="22" spans="2:6" ht="24" customHeight="1">
       <c r="B22" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>26</v>
@@ -8260,7 +8274,7 @@
     </row>
     <row r="23" spans="2:6" ht="24" customHeight="1">
       <c r="B23" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C23" s="11" t="b">
         <v>1</v>
@@ -8272,7 +8286,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="24" customHeight="1">
@@ -8280,7 +8294,7 @@
     </row>
     <row r="26" spans="2:6" ht="24" customHeight="1">
       <c r="B26" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>26</v>
@@ -8297,7 +8311,7 @@
     </row>
     <row r="27" spans="2:6" ht="24" customHeight="1">
       <c r="B27" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>1</v>
@@ -8309,7 +8323,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24" customHeight="1">
@@ -8317,7 +8331,7 @@
     </row>
     <row r="30" spans="2:6" ht="24" customHeight="1">
       <c r="B30" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>26</v>
@@ -8334,7 +8348,7 @@
     </row>
     <row r="31" spans="2:6" ht="24" customHeight="1">
       <c r="B31" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>1</v>
@@ -8346,20 +8360,20 @@
         <v>31</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="24" customHeight="1">
       <c r="B32" s="13" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -8368,12 +8382,12 @@
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1">
       <c r="B36" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>26</v>
@@ -8390,7 +8404,7 @@
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>1</v>
@@ -8402,20 +8416,20 @@
         <v>38</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -8424,12 +8438,12 @@
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
@@ -8446,7 +8460,7 @@
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C47" s="11" t="b">
         <v>1</v>
@@ -8458,20 +8472,20 @@
         <v>38</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -8480,12 +8494,12 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1">
       <c r="B54" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>26</v>
@@ -8502,7 +8516,7 @@
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1">
       <c r="B55" s="10" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C55" s="11" t="b">
         <v>1</v>
@@ -8514,7 +8528,7 @@
         <v>38</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1">
@@ -8522,7 +8536,7 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>26</v>
@@ -8539,7 +8553,7 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1">
       <c r="B59" s="10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C59" s="11" t="b">
         <v>1</v>
@@ -8551,7 +8565,7 @@
         <v>92</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1">
@@ -8561,7 +8575,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>26</v>
@@ -8578,7 +8592,7 @@
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1">
       <c r="B63" s="10" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C63" s="11" t="b">
         <v>0</v>
@@ -8590,7 +8604,7 @@
         <v>31</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1">
@@ -8598,10 +8612,10 @@
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -8610,12 +8624,12 @@
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1">
       <c r="B68" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>26</v>
@@ -8632,7 +8646,7 @@
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1">
       <c r="B71" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C71" s="11" t="b">
         <v>1</v>
@@ -8644,7 +8658,7 @@
         <v>38</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1">
@@ -8652,7 +8666,7 @@
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1">
       <c r="B74" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>26</v>
@@ -8669,7 +8683,7 @@
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1">
       <c r="B75" s="10" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C75" s="11" t="b">
         <v>1</v>
@@ -8681,7 +8695,7 @@
         <v>38</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1">
@@ -8689,7 +8703,7 @@
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1">
       <c r="B78" s="8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>26</v>
@@ -8706,7 +8720,7 @@
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1">
       <c r="B79" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C79" s="11" t="b">
         <v>1</v>
@@ -8718,7 +8732,7 @@
         <v>31</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1">

--- a/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
+++ b/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
@@ -46,7 +46,7 @@
     <t>GFDL-CM4</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean</t>

--- a/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
+++ b/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="825">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -166,6 +166,9 @@
     <t>cmip6.ocean.key_properties.name</t>
   </si>
   <si>
+    <t>GFDL MOM4p1</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -235,15 +238,15 @@
     <t>cmip6.ocean.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Boussinesq</t>
+  </si>
+  <si>
     <t>Primitive equations</t>
   </si>
   <si>
     <t>Non-hydrostatic</t>
   </si>
   <si>
-    <t>Boussinesq</t>
-  </si>
-  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -298,6 +301,9 @@
     <t>cmip6.ocean.key_properties.seawater_properties.eos_type</t>
   </si>
   <si>
+    <t>Jackett et al. 2006</t>
+  </si>
+  <si>
     <t>Linear</t>
   </si>
   <si>
@@ -307,9 +313,6 @@
     <t>Mc Dougall et al.</t>
   </si>
   <si>
-    <t>Jackett et al. 2006</t>
-  </si>
-  <si>
     <t>TEOS 2010</t>
   </si>
   <si>
@@ -373,6 +376,9 @@
     <t>cmip6.ocean.key_properties.seawater_properties.ocean_freezing_point</t>
   </si>
   <si>
+    <t>Other: varying</t>
+  </si>
+  <si>
     <t>1.2.1.6 *</t>
   </si>
   <si>
@@ -496,6 +502,9 @@
     <t>cmip6.ocean.key_properties.nonoceanic_waters.isolated_seas</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
@@ -506,6 +515,9 @@
   </si>
   <si>
     <t>cmip6.ocean.key_properties.nonoceanic_waters.river_mouth</t>
+  </si>
+  <si>
+    <t>Mix over top 40 m</t>
   </si>
   <si>
     <t>1.5.1</t>
@@ -947,6 +959,9 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
+    <t>Other: finite differences</t>
+  </si>
+  <si>
     <t>Finite difference</t>
   </si>
   <si>
@@ -1025,6 +1040,9 @@
     <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
   </si>
   <si>
+    <t>Forward-backward</t>
+  </si>
+  <si>
     <t>Leap-frog + Asselin filter</t>
   </si>
   <si>
@@ -1040,9 +1058,6 @@
     <t>AM3-LF</t>
   </si>
   <si>
-    <t>Forward-backward</t>
-  </si>
-  <si>
     <t>Forward operator</t>
   </si>
   <si>
@@ -1184,6 +1199,9 @@
     <t>cmip6.ocean.advection.overview</t>
   </si>
   <si>
+    <t>vertical tracer advection use Sweby</t>
+  </si>
+  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -1220,6 +1238,9 @@
     <t>cmip6.ocean.advection.momentum.scheme_name</t>
   </si>
   <si>
+    <t>2nd order centered</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
@@ -1286,6 +1307,9 @@
     <t>cmip6.ocean.advection.lateral_tracers.name</t>
   </si>
   <si>
+    <t>Sweby</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
@@ -1412,6 +1436,9 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.direction</t>
   </si>
   <si>
+    <t>Iso-level</t>
+  </si>
+  <si>
     <t>Horizontal</t>
   </si>
   <si>
@@ -1424,9 +1451,6 @@
     <t>Geopotential</t>
   </si>
   <si>
-    <t>Iso-level</t>
-  </si>
-  <si>
     <t>5.1.2.2 *</t>
   </si>
   <si>
@@ -1436,12 +1460,12 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
+    <t>Bi-harmonic</t>
+  </si>
+  <si>
     <t>Harmonic</t>
   </si>
   <si>
-    <t>Bi-harmonic</t>
-  </si>
-  <si>
     <t>5.1.2.3 *</t>
   </si>
   <si>
@@ -1481,15 +1505,15 @@
     <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.type</t>
   </si>
   <si>
+    <t>Time + space varying (Smagorinsky)</t>
+  </si>
+  <si>
     <t>Constant</t>
   </si>
   <si>
     <t>Space varying</t>
   </si>
   <si>
-    <t>Time + space varying (Smagorinsky)</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.3.2 </t>
   </si>
   <si>
@@ -1526,6 +1550,9 @@
     <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.coeff_background</t>
   </si>
   <si>
+    <t>1e05 m2/sec</t>
+  </si>
+  <si>
     <t>5.1.3.5 *</t>
   </si>
   <si>
@@ -1706,6 +1733,9 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.flux_type</t>
   </si>
   <si>
+    <t>Skew flux</t>
+  </si>
+  <si>
     <t>5.2.4.4 *</t>
   </si>
   <si>
@@ -1718,6 +1748,9 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.added_diffusivity</t>
   </si>
   <si>
+    <t>Flow dependent</t>
+  </si>
+  <si>
     <t>6.1.1</t>
   </si>
   <si>
@@ -1784,15 +1817,15 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.type</t>
   </si>
   <si>
+    <t>Turbulent closure - KPP</t>
+  </si>
+  <si>
     <t>Constant value</t>
   </si>
   <si>
     <t>Turbulent closure - TKE</t>
   </si>
   <si>
-    <t>Turbulent closure - KPP</t>
-  </si>
-  <si>
     <t>Turbulent closure - Mellor-Yamada</t>
   </si>
   <si>
@@ -1841,6 +1874,9 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.background</t>
   </si>
   <si>
+    <t>Constant 10**-5 m**2/s</t>
+  </si>
+  <si>
     <t>6.1.4</t>
   </si>
   <si>
@@ -1886,6 +1922,9 @@
     <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.background</t>
   </si>
   <si>
+    <t>1e-4 m**2/s</t>
+  </si>
+  <si>
     <t>6.1.5</t>
   </si>
   <si>
@@ -1907,12 +1946,12 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.convection_type</t>
   </si>
   <si>
+    <t>Enhanced vertical diffusion</t>
+  </si>
+  <si>
     <t>Non-penetrative convective adjustment</t>
   </si>
   <si>
-    <t>Enhanced vertical diffusion</t>
-  </si>
-  <si>
     <t>Included in turbulence closure</t>
   </si>
   <si>
@@ -1928,6 +1967,9 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
   </si>
   <si>
+    <t>Baroclinic tides, Barotropic tides</t>
+  </si>
+  <si>
     <t>6.1.5.3 *</t>
   </si>
   <si>
@@ -2003,6 +2045,9 @@
     <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.background</t>
   </si>
   <si>
+    <t>10**-5 m**2/s</t>
+  </si>
+  <si>
     <t>6.1.7</t>
   </si>
   <si>
@@ -2093,6 +2138,9 @@
     <t>cmip6.ocean.uplow_boundaries.free_surface.scheme</t>
   </si>
   <si>
+    <t>Non-linear semi-explicit</t>
+  </si>
+  <si>
     <t>Linear implicit</t>
   </si>
   <si>
@@ -2108,9 +2156,6 @@
     <t>Non-linear filtered</t>
   </si>
   <si>
-    <t>Non-linear semi-explicit</t>
-  </si>
-  <si>
     <t>Fully explicit</t>
   </si>
   <si>
@@ -2237,6 +2282,9 @@
     <t>cmip6.ocean.boundary_forcing.momentum_flux_correction</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.1.1.5 </t>
   </si>
   <si>
@@ -2285,6 +2333,9 @@
     <t>cmip6.ocean.boundary_forcing.geothermal_heating</t>
   </si>
   <si>
+    <t>Spatial varying</t>
+  </si>
+  <si>
     <t>8.1.2</t>
   </si>
   <si>
@@ -2330,10 +2381,10 @@
     <t>cmip6.ocean.boundary_forcing.momentum.lateral_friction.type</t>
   </si>
   <si>
+    <t>No-slip</t>
+  </si>
+  <si>
     <t>Free-slip</t>
-  </si>
-  <si>
-    <t>No-slip</t>
   </si>
   <si>
     <t>8.1.4</t>
@@ -3101,20 +3152,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3125,10 +3176,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3136,10 +3187,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3147,15 +3198,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3163,10 +3214,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3174,10 +3225,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3185,10 +3236,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3196,26 +3247,28 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3223,15 +3276,15 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="178" customHeight="1">
@@ -3239,10 +3292,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3250,15 +3303,15 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="178" customHeight="1">
@@ -3266,10 +3319,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3277,15 +3330,15 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="178" customHeight="1">
@@ -3293,10 +3346,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3304,195 +3357,203 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>775</v>
+      </c>
       <c r="AA48" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>784</v>
+      </c>
       <c r="AA56" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3500,15 +3561,15 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="B72" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="178" customHeight="1">
@@ -3516,10 +3577,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3527,15 +3588,15 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -3543,88 +3604,88 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="AD90" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3632,10 +3693,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -3765,7 +3826,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD198"/>
+  <dimension ref="A1:XFD204"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3810,14 +3871,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3825,15 +3888,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -3841,10 +3904,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3852,15 +3915,15 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3868,55 +3931,57 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -3925,1061 +3990,1257 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AB25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="24" customHeight="1">
+      <c r="B26" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AD25" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="AA26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="AC26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" ht="24" customHeight="1">
-      <c r="A28" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="10" t="s">
+    </row>
+    <row r="29" spans="1:34" ht="24" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="24" customHeight="1">
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="AA30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB30" s="6" t="s">
+    <row r="31" spans="1:34" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AC30" s="6" t="s">
+      <c r="AA31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AD30" s="6" t="s">
+      <c r="AC31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AD31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AE31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AG30" s="6" t="s">
+      <c r="AF31" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AH30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="AG31" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="AH31" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="24" customHeight="1">
+      <c r="B32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH32" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="24" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH33" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="24" customHeight="1">
+      <c r="B35" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="24" customHeight="1">
+      <c r="B36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="24" customHeight="1">
+      <c r="A39" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
-      <c r="B34" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
-      <c r="A36" s="9" t="s">
+    <row r="40" spans="1:34" ht="24" customHeight="1">
+      <c r="B40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="9" t="s">
+    </row>
+    <row r="42" spans="1:34" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="10" t="s">
+    </row>
+    <row r="43" spans="1:34" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
+      <c r="C43" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AB38" s="6" t="s">
+    </row>
+    <row r="44" spans="1:34" ht="24" customHeight="1">
+      <c r="B44" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AC38" s="6" t="s">
+      <c r="AA44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AB44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AC44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AF38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="AD44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE44" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="AF44" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="10" t="s">
+    </row>
+    <row r="47" spans="1:34" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB42" s="6" t="s">
+      <c r="C47" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="24" customHeight="1">
+      <c r="B48" s="11"/>
+      <c r="AA48" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="AB48" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="24" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="10" t="s">
+    </row>
+    <row r="51" spans="1:28" ht="24" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-      <c r="AA46" s="6" t="s">
+      <c r="C51" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AB46" s="6" t="s">
+    </row>
+    <row r="52" spans="1:28" ht="24" customHeight="1">
+      <c r="B52" s="11"/>
+      <c r="AA52" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="AB52" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="9" t="s">
+    </row>
+    <row r="54" spans="1:28" ht="24" customHeight="1">
+      <c r="A54" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="10" t="s">
+    </row>
+    <row r="55" spans="1:28" ht="24" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
+      <c r="C55" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AB50" s="6" t="s">
+    </row>
+    <row r="56" spans="1:28" ht="24" customHeight="1">
+      <c r="B56" s="11"/>
+      <c r="AA56" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="AB56" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="9" t="s">
+    </row>
+    <row r="58" spans="1:28" ht="24" customHeight="1">
+      <c r="A58" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="10" t="s">
+    </row>
+    <row r="59" spans="1:28" ht="24" customHeight="1">
+      <c r="A59" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="60" spans="1:28" ht="24" customHeight="1">
+      <c r="B60" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
+      <c r="AA60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="24" customHeight="1">
+      <c r="A62" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="63" spans="1:28" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="60" spans="1:28" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="10" t="s">
+    <row r="64" spans="1:28" ht="24" customHeight="1">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="12" t="s">
+    <row r="67" spans="1:32" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="C67" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="B66" s="13" t="s">
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="71" spans="1:32" ht="24" customHeight="1">
+      <c r="A71" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="A68" s="9" t="s">
+      <c r="B71" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="9" t="s">
+    </row>
+    <row r="72" spans="1:32" ht="24" customHeight="1">
+      <c r="B72" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="A69" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="10" t="s">
+    <row r="74" spans="1:32" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11"/>
-      <c r="AA70" s="6" t="s">
+    <row r="75" spans="1:32" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AB70" s="6" t="s">
+      <c r="C75" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="AC70" s="6" t="s">
+    </row>
+    <row r="76" spans="1:32" ht="24" customHeight="1">
+      <c r="B76" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AD70" s="6" t="s">
+      <c r="AA76" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB76" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AE70" s="6" t="s">
+      <c r="AC76" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AF70" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="A72" s="9" t="s">
+      <c r="AD76" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="AE76" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" ht="24" customHeight="1">
-      <c r="A73" s="14" t="s">
+      <c r="AF76" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="10" t="s">
+    </row>
+    <row r="79" spans="1:32" ht="24" customHeight="1">
+      <c r="A79" s="14" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:32" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
+    <row r="80" spans="1:32" ht="24" customHeight="1">
+      <c r="B80" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" ht="178" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
+      <c r="B88" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="C88" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="13" t="s">
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
+      <c r="B92" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="9" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="178" customHeight="1">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
+      <c r="B96" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="14" t="s">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="178" customHeight="1">
+      <c r="B98" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="178" customHeight="1">
-      <c r="B97" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="12" t="s">
+      <c r="B101" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="13" t="s">
+      <c r="C101" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="B102" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="178" customHeight="1">
+      <c r="B103" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="9" t="s">
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="A106" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="14" t="s">
+      <c r="B106" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="B107" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="A110" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="14" t="s">
+      <c r="B110" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24" customHeight="1">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="A114" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="14" t="s">
+      <c r="B114" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24" customHeight="1">
+      <c r="B115" s="11"/>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="A117" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="A118" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="10" t="s">
         <v>178</v>
       </c>
+      <c r="C118" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="B119" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="11"/>
+    </row>
+    <row r="123" spans="1:3" ht="24" customHeight="1">
+      <c r="A123" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="24" customHeight="1">
+      <c r="B124" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24" customHeight="1">
+      <c r="A126" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="14" t="s">
+    <row r="127" spans="1:3" ht="24" customHeight="1">
+      <c r="A127" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="14" t="s">
+      <c r="B127" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24" customHeight="1">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="130" spans="1:3" ht="24" customHeight="1">
+      <c r="A130" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="24" customHeight="1">
+      <c r="A131" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
-    </row>
-    <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="14" t="s">
+      <c r="B131" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="24" customHeight="1">
+      <c r="B132" s="11"/>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="A134" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="A135" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
-    </row>
-    <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="14" t="s">
+      <c r="B135" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C133" s="10" t="s">
+    </row>
+    <row r="136" spans="1:3" ht="24" customHeight="1">
+      <c r="B136" s="11"/>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="A138" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="9" t="s">
+      <c r="B138" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B136" s="9" t="s">
+    </row>
+    <row r="139" spans="1:3" ht="24" customHeight="1">
+      <c r="A139" s="14" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B137" s="10" t="s">
+      <c r="B139" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
-    </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
+      <c r="B140" s="11"/>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B142" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="A141" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="10" t="s">
+    <row r="143" spans="1:3" ht="24" customHeight="1">
+      <c r="A143" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C143" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
-    </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
+      <c r="B144" s="11"/>
+    </row>
+    <row r="146" spans="1:3" ht="24" customHeight="1">
+      <c r="A146" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B146" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" s="10" t="s">
+    <row r="147" spans="1:3" ht="24" customHeight="1">
+      <c r="A147" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="12" t="s">
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="11"/>
+    </row>
+    <row r="150" spans="1:3" ht="24" customHeight="1">
+      <c r="A150" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B150" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="13" t="s">
+    <row r="151" spans="1:3" ht="24" customHeight="1">
+      <c r="A151" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="10" t="s">
         <v>209</v>
       </c>
+      <c r="C151" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
-      <c r="A152" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="11"/>
+    </row>
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="A155" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="14" t="s">
+      <c r="B155" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24" customHeight="1">
+      <c r="B156" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="A158" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="24" customHeight="1">
+      <c r="A159" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="B154" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="178" customHeight="1">
-      <c r="B155" s="11"/>
-    </row>
-    <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="A157" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B157" s="9" t="s">
+      <c r="B159" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="24" customHeight="1">
+      <c r="B160" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="178" customHeight="1">
+      <c r="B161" s="11"/>
+    </row>
+    <row r="163" spans="1:3" ht="24" customHeight="1">
+      <c r="A163" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="A164" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="24" customHeight="1">
+      <c r="B165" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
+      <c r="B166" s="11"/>
+    </row>
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="A168" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="24" customHeight="1">
+      <c r="A169" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="24" customHeight="1">
+      <c r="B170" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="24" customHeight="1">
+      <c r="B171" s="11"/>
+    </row>
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="A173" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="24" customHeight="1">
+      <c r="A174" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="24" customHeight="1">
+      <c r="B175" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="24" customHeight="1">
+      <c r="B176" s="11"/>
+    </row>
+    <row r="179" spans="1:32" ht="24" customHeight="1">
+      <c r="A179" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:32" ht="24" customHeight="1">
+      <c r="B180" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32" ht="24" customHeight="1">
+      <c r="A182" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B182" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="14" t="s">
+    <row r="183" spans="1:32" ht="24" customHeight="1">
+      <c r="A183" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="B159" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="11"/>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="A162" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="A163" s="14" t="s">
+      <c r="B183" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" ht="24" customHeight="1">
+      <c r="B184" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="185" spans="1:32" ht="178" customHeight="1">
+      <c r="B185" s="11"/>
+    </row>
+    <row r="187" spans="1:32" ht="24" customHeight="1">
+      <c r="A187" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32" ht="24" customHeight="1">
+      <c r="A188" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32" ht="24" customHeight="1">
+      <c r="B189" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32" ht="24" customHeight="1">
+      <c r="B190" s="11"/>
+      <c r="AA190" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB190" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC190" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD190" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE190" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF190" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32" ht="24" customHeight="1">
+      <c r="A192" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="24" customHeight="1">
+      <c r="A193" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="B164" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="B165" s="11"/>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="A167" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="A168" s="14" t="s">
+      <c r="B193" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="24" customHeight="1">
+      <c r="B194" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="24" customHeight="1">
+      <c r="B195" s="11"/>
+    </row>
+    <row r="197" spans="1:3" ht="24" customHeight="1">
+      <c r="A197" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="24" customHeight="1">
+      <c r="A198" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="24" customHeight="1">
-      <c r="B169" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="24" customHeight="1">
-      <c r="B170" s="11"/>
-    </row>
-    <row r="173" spans="1:3" ht="24" customHeight="1">
-      <c r="A173" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="24" customHeight="1">
-      <c r="B174" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="24" customHeight="1">
-      <c r="A176" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="177" spans="1:32" ht="24" customHeight="1">
-      <c r="A177" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="178" spans="1:32" ht="24" customHeight="1">
-      <c r="B178" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:32" ht="178" customHeight="1">
-      <c r="B179" s="11"/>
-    </row>
-    <row r="181" spans="1:32" ht="24" customHeight="1">
-      <c r="A181" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:32" ht="24" customHeight="1">
-      <c r="A182" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="183" spans="1:32" ht="24" customHeight="1">
-      <c r="B183" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:32" ht="24" customHeight="1">
-      <c r="B184" s="11"/>
-      <c r="AA184" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB184" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC184" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD184" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE184" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF184" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="186" spans="1:32" ht="24" customHeight="1">
-      <c r="A186" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="187" spans="1:32" ht="24" customHeight="1">
-      <c r="A187" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:32" ht="24" customHeight="1">
-      <c r="B188" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:32" ht="24" customHeight="1">
-      <c r="B189" s="11"/>
-    </row>
-    <row r="191" spans="1:32" ht="24" customHeight="1">
-      <c r="A191" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="192" spans="1:32" ht="24" customHeight="1">
-      <c r="A192" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="24" customHeight="1">
-      <c r="B193" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="24" customHeight="1">
-      <c r="B194" s="11"/>
-    </row>
-    <row r="196" spans="1:3" ht="24" customHeight="1">
-      <c r="A196" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="24" customHeight="1">
-      <c r="A197" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B197" s="10" t="s">
+      <c r="B198" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C198" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="24" customHeight="1">
-      <c r="B198" s="11"/>
+    <row r="199" spans="1:3" ht="24" customHeight="1">
+      <c r="B199" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="24" customHeight="1">
+      <c r="B200" s="11"/>
+    </row>
+    <row r="202" spans="1:3" ht="24" customHeight="1">
+      <c r="A202" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="24" customHeight="1">
+      <c r="A203" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="24" customHeight="1">
+      <c r="B204" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="24">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AD20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AH30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AF38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AB42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AB46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AB50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AB54</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>AA26:AD26</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>AA31:AH31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>AA32:AH32</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>AA33:AH33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AH34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AH35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AH36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>AA44:AF44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+      <formula1>AA48:AB48</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>AA52:AB52</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+      <formula1>AA56:AB56</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+      <formula1>AA60:AB60</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
+      <formula1>AA76:AF76</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B134">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B140">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B148">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B152">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AF184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B190">
+      <formula1>AA190:AF190</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B204">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5003,20 +5264,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5027,10 +5288,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5038,10 +5299,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5049,15 +5310,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5065,98 +5326,98 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5164,123 +5425,125 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>310</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5321,20 +5584,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5345,10 +5608,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5356,10 +5619,10 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="24" customHeight="1">
@@ -5367,15 +5630,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="178" customHeight="1">
@@ -5383,114 +5646,116 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>337</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>337</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5498,111 +5763,111 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AF39" s="6" t="s">
         <v>337</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5610,68 +5875,68 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5679,23 +5944,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5703,10 +5968,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -5759,20 +6024,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5783,10 +6048,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5794,10 +6059,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5805,67 +6070,71 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>397</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -5873,32 +6142,34 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -5906,34 +6177,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -5941,43 +6212,45 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -5985,7 +6258,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -5996,32 +6269,34 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6032,27 +6307,27 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6060,10 +6335,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6071,20 +6346,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6095,10 +6370,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6106,25 +6381,27 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6171,20 +6448,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6195,10 +6472,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6206,10 +6483,10 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -6217,15 +6494,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
@@ -6233,217 +6510,225 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>469</v>
+      </c>
       <c r="AA23" s="6" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>477</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>483</v>
+      </c>
       <c r="AA31" s="6" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>492</v>
+      </c>
       <c r="AA39" s="6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6451,10 +6736,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6462,10 +6747,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6473,10 +6758,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6484,32 +6769,34 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6517,56 +6804,58 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6574,197 +6863,207 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>472</v>
+      </c>
       <c r="AA75" s="6" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AF75" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
+      <c r="B79" s="11" t="s">
+        <v>478</v>
+      </c>
       <c r="AA79" s="6" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>483</v>
+      </c>
       <c r="AA83" s="6" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="11" t="s">
+        <v>493</v>
+      </c>
       <c r="AA91" s="6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
+      <c r="B95" s="11">
+        <v>600</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -6772,10 +7071,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6783,43 +7082,45 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="B103" s="11"/>
+      <c r="B103" s="11">
+        <v>600</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -6827,62 +7128,64 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
-      <c r="B115" s="11"/>
+      <c r="B115" s="11" t="s">
+        <v>559</v>
+      </c>
       <c r="AA115" s="6" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="AB115" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -6890,10 +7193,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -6901,21 +7204,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -6923,14 +7228,16 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
-      <c r="B127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>573</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="18">
@@ -7009,20 +7316,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7033,10 +7340,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7044,10 +7351,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7055,15 +7362,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7071,34 +7378,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7106,83 +7413,85 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>596</v>
+      </c>
       <c r="AA27" s="6" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7190,21 +7499,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7212,10 +7521,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7223,94 +7532,98 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="11" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>596</v>
+      </c>
       <c r="AA47" s="6" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7318,21 +7631,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7340,10 +7653,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7351,68 +7664,72 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>639</v>
+      </c>
       <c r="AA67" s="6" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="AD67" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7420,32 +7737,34 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7453,21 +7772,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7475,77 +7794,77 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AG87" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7553,21 +7872,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7575,10 +7894,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7586,88 +7905,90 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
-      <c r="B99" s="11"/>
+      <c r="B99" s="11" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="AG107" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7675,10 +7996,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -7686,10 +8007,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -7697,10 +8018,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -7708,14 +8029,16 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>631</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="15">
@@ -7787,20 +8110,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7811,10 +8134,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7822,10 +8145,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7833,15 +8156,15 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7849,80 +8172,82 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>703</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -7930,23 +8255,23 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
@@ -7954,15 +8279,15 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="178" customHeight="1">
@@ -7970,63 +8295,67 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>724</v>
+      </c>
       <c r="AA36" s="6" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8034,19 +8363,21 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
+++ b/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="834">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -277,6 +277,9 @@
     <t>W-velocity</t>
   </si>
   <si>
+    <t>SSH: Sea Surface Height</t>
+  </si>
+  <si>
     <t>SSH</t>
   </si>
   <si>
@@ -436,7 +439,7 @@
     <t>6000 years BP</t>
   </si>
   <si>
-    <t>LGM</t>
+    <t>LGM: Last Glacial Maximum</t>
   </si>
   <si>
     <t>Pliocene</t>
@@ -857,16 +860,16 @@
     <t>S-coordinate</t>
   </si>
   <si>
-    <t>Isopycnic - sigma 0</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 2</t>
-  </si>
-  <si>
-    <t>Isopycnic - sigma 4</t>
-  </si>
-  <si>
-    <t>Isopycnic - other</t>
+    <t>Isopycnic - sigma 0: Density referenced to the surface</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 2: Density referenced to 2000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - sigma 4: Density referenced to 4000 m</t>
+  </si>
+  <si>
+    <t>Isopycnic - other: Other density-based coordinate</t>
   </si>
   <si>
     <t>Hybrid / Z+S</t>
@@ -1013,1222 +1016,1246 @@
     <t>cmip6.ocean.timestepping_framework.diurnal_cycle</t>
   </si>
   <si>
+    <t>None: No diurnal cycle in ocean</t>
+  </si>
+  <si>
+    <t>Via coupling: Diurnal cycle via coupling frequency</t>
+  </si>
+  <si>
+    <t>Specific treatment: Specific treament</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Properties of tracers time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Tracers time stepping scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
+  </si>
+  <si>
+    <t>Forward-backward</t>
+  </si>
+  <si>
+    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector: Predictor-corrector scheme</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
+  </si>
+  <si>
+    <t>AM3-LF: AM3-LF such as used in ROMS</t>
+  </si>
+  <si>
+    <t>Forward-backward: Forward-backward scheme</t>
+  </si>
+  <si>
+    <t>Forward operator: Forward operator scheme</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Time Step</t>
+  </si>
+  <si>
+    <t>Tracers time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics in ocean</t>
+  </si>
+  <si>
+    <t>3.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
+  </si>
+  <si>
+    <t>Preconditioned conjugate gradient</t>
+  </si>
+  <si>
+    <t>Sub cyling: Sub cycling relative to tracers</t>
+  </si>
+  <si>
+    <t>3.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Baroclinic dynamics scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Baroclinic time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Barotropic</t>
+  </si>
+  <si>
+    <t>Barotropic time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Splitting</t>
+  </si>
+  <si>
+    <t>Time splitting method</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Via coupling</t>
+    <t>Split explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.1.2 </t>
+  </si>
+  <si>
+    <t>Barotropic time step (in seconds)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.barotropic.time_step</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>Timestepping Framework --&gt; Vertical Physics</t>
+  </si>
+  <si>
+    <t>Vertical physics time stepping in ocean</t>
+  </si>
+  <si>
+    <t>3.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Details of vertical time stepping in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.timestepping_framework.vertical_physics.method</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Advection</t>
+  </si>
+  <si>
+    <t>Ocean advection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the advection in ocean model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of ocean advection in ocean model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.overview</t>
+  </si>
+  <si>
+    <t>vertical tracer advection use Sweby</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Advection --&gt; Momentum</t>
+  </si>
+  <si>
+    <t>Properties of lateral momemtum advection scheme in ocean</t>
+  </si>
+  <si>
+    <t>4.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Type of lateral momemtum advection scheme in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.momentum.type</t>
+  </si>
+  <si>
+    <t>Flux form</t>
+  </si>
+  <si>
+    <t>Vector form</t>
+  </si>
+  <si>
+    <t>4.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Scheme Name</t>
+  </si>
+  <si>
+    <t>Name of ocean momemtum advection scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.momentum.scheme_name</t>
+  </si>
+  <si>
+    <t>2nd order centered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.3 </t>
+  </si>
+  <si>
+    <t>ALE</t>
+  </si>
+  <si>
+    <t>Using ALE for vertical advection ? (if vertical coordinates are sigma)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.momentum.ALE</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Advection --&gt; Lateral Tracers</t>
+  </si>
+  <si>
+    <t>Properties of lateral tracer advection scheme in ocean</t>
+  </si>
+  <si>
+    <t>4.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Order of lateral tracer advection scheme in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.lateral_tracers.order</t>
+  </si>
+  <si>
+    <t>4.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Flux Limiter</t>
+  </si>
+  <si>
+    <t>Monotonic flux limiter for lateral tracer advection scheme in ocean ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.lateral_tracers.flux_limiter</t>
+  </si>
+  <si>
+    <t>4.3.1.3 *</t>
+  </si>
+  <si>
+    <t>Effective Order</t>
+  </si>
+  <si>
+    <t>Effective order of limited lateral tracer advection scheme in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.lateral_tracers.effective_order</t>
+  </si>
+  <si>
+    <t>4.3.1.4 *</t>
+  </si>
+  <si>
+    <t>Descriptive text for lateral tracer advection scheme in ocean (e.g. MUSCL, PPM-H5, PRATHER,...)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.lateral_tracers.name</t>
+  </si>
+  <si>
+    <t>Sweby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.5 </t>
+  </si>
+  <si>
+    <t>Passive Tracers</t>
+  </si>
+  <si>
+    <t>Passive tracers advected</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.lateral_tracers.passive_tracers</t>
+  </si>
+  <si>
+    <t>Ideal age</t>
+  </si>
+  <si>
+    <t>CFC 11</t>
+  </si>
+  <si>
+    <t>CFC 12</t>
+  </si>
+  <si>
+    <t>SF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.1.6 </t>
+  </si>
+  <si>
+    <t>Passive Tracers Advection</t>
+  </si>
+  <si>
+    <t>Is advection of passive tracers different than active ? if so, describe.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.lateral_tracers.passive_tracers_advection</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>Advection --&gt; Vertical Tracers</t>
+  </si>
+  <si>
+    <t>Properties of vertical tracer advection scheme in ocean</t>
+  </si>
+  <si>
+    <t>4.4.1.1 *</t>
+  </si>
+  <si>
+    <t>Descriptive text for vertical tracer advection scheme in ocean (e.g. MUSCL, PPM-H5, PRATHER,...)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.vertical_tracers.name</t>
+  </si>
+  <si>
+    <t>4.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Monotonic flux limiter for vertical tracer advection scheme in ocean ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.vertical_tracers.flux_limiter</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Lateral Physics</t>
+  </si>
+  <si>
+    <t>Ocean lateral physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the lateral physics in ocean model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of ocean lateral physics in ocean model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Type of transient eddy representation in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.scheme</t>
+  </si>
+  <si>
+    <t>None: No transient eddies in ocean</t>
+  </si>
+  <si>
+    <t>Eddy active: Full resolution of eddies</t>
+  </si>
+  <si>
+    <t>Eddy admitting: Some eddy activity permitted by resolution</t>
+  </si>
+  <si>
+    <t>5.1.2</t>
+  </si>
+  <si>
+    <t>Lateral Physics --&gt; Momentum --&gt; Operator</t>
+  </si>
+  <si>
+    <t>Properties of lateral physics operator for momentum in ocean</t>
+  </si>
+  <si>
+    <t>5.1.2.1 *</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Direction of lateral physics momemtum scheme in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.operator.direction</t>
+  </si>
+  <si>
+    <t>Iso-level</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Isopycnal</t>
+  </si>
+  <si>
+    <t>Isoneutral</t>
+  </si>
+  <si>
+    <t>Geopotential</t>
+  </si>
+  <si>
+    <t>5.1.2.2 *</t>
+  </si>
+  <si>
+    <t>Order of lateral physics momemtum scheme in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
+  </si>
+  <si>
+    <t>Bi-harmonic</t>
+  </si>
+  <si>
+    <t>Harmonic: Second order</t>
+  </si>
+  <si>
+    <t>Bi-harmonic: Fourth order</t>
+  </si>
+  <si>
+    <t>5.1.2.3 *</t>
+  </si>
+  <si>
+    <t>Discretisation</t>
+  </si>
+  <si>
+    <t>Discretisation of lateral physics momemtum scheme in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
+  </si>
+  <si>
+    <t>Second order</t>
+  </si>
+  <si>
+    <t>Second order: Second order</t>
+  </si>
+  <si>
+    <t>Higher order: Higher order</t>
+  </si>
+  <si>
+    <t>Flux limiter</t>
+  </si>
+  <si>
+    <t>5.1.3</t>
+  </si>
+  <si>
+    <t>Lateral Physics --&gt; Momentum --&gt; Eddy Viscosity Coeff</t>
+  </si>
+  <si>
+    <t>Properties of eddy viscosity coeff in lateral physics momemtum scheme in the ocean</t>
+  </si>
+  <si>
+    <t>5.1.3.1 *</t>
+  </si>
+  <si>
+    <t>Lateral physics momemtum eddy viscosity coeff type in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.type</t>
+  </si>
+  <si>
+    <t>Time + space varying (Smagorinsky)</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Space varying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.3.2 </t>
+  </si>
+  <si>
+    <t>Constant Coefficient</t>
+  </si>
+  <si>
+    <t>If constant, value of eddy viscosity coeff in lateral physics momemtum scheme (in m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.constant_coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.3.3 </t>
+  </si>
+  <si>
+    <t>Variable Coefficient</t>
+  </si>
+  <si>
+    <t>If space-varying, describe variations of eddy viscosity coeff in lateral physics momemtum scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.variable_coefficient</t>
+  </si>
+  <si>
+    <t>5.1.3.4 *</t>
+  </si>
+  <si>
+    <t>Coeff Background</t>
+  </si>
+  <si>
+    <t>Describe background eddy viscosity coeff in lateral physics momemtum scheme (give values in m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.coeff_background</t>
+  </si>
+  <si>
+    <t>1e05 m2/sec</t>
+  </si>
+  <si>
+    <t>5.1.3.5 *</t>
+  </si>
+  <si>
+    <t>Coeff Backscatter</t>
+  </si>
+  <si>
+    <t>Is there backscatter in eddy viscosity coeff in lateral physics momemtum scheme ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.coeff_backscatter</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>Lateral Physics --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Properties of lateral physics for tracers in ocean</t>
+  </si>
+  <si>
+    <t>5.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Mesoscale Closure</t>
+  </si>
+  <si>
+    <t>Is there a mesoscale closure in the lateral physics tracers scheme ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.mesoscale_closure</t>
+  </si>
+  <si>
+    <t>5.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Submesoscale Mixing</t>
+  </si>
+  <si>
+    <t>Is there a submesoscale mixing parameterisation (i.e Fox-Kemper) in the lateral physics tracers scheme ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.submesoscale_mixing</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>Lateral Physics --&gt; Tracers --&gt; Operator</t>
+  </si>
+  <si>
+    <t>Properties of lateral physics operator for tracers in ocean</t>
+  </si>
+  <si>
+    <t>5.2.2.1 *</t>
+  </si>
+  <si>
+    <t>Direction of lateral physics tracers scheme in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.operator.direction</t>
+  </si>
+  <si>
+    <t>5.2.2.2 *</t>
+  </si>
+  <si>
+    <t>Order of lateral physics tracers scheme in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.operator.order</t>
+  </si>
+  <si>
+    <t>Harmonic</t>
+  </si>
+  <si>
+    <t>5.2.2.3 *</t>
+  </si>
+  <si>
+    <t>Discretisation of lateral physics tracers scheme in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.operator.discretisation</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>Lateral Physics --&gt; Tracers --&gt; Eddy Diffusity Coeff</t>
+  </si>
+  <si>
+    <t>Properties of eddy diffusity coeff in lateral physics tracers scheme in the ocean</t>
+  </si>
+  <si>
+    <t>5.2.3.1 *</t>
+  </si>
+  <si>
+    <t>Lateral physics tracers eddy diffusity coeff type in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.3.2 </t>
+  </si>
+  <si>
+    <t>If constant, value of eddy diffusity coeff in lateral physics tracers scheme (in m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.constant_coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.3.3 </t>
+  </si>
+  <si>
+    <t>If space-varying, describe variations of eddy diffusity coeff in lateral physics tracers scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.variable_coefficient</t>
+  </si>
+  <si>
+    <t>5.2.3.4 *</t>
+  </si>
+  <si>
+    <t>Describe background eddy diffusity coeff in lateral physics tracers scheme (give values in m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.coeff_background</t>
+  </si>
+  <si>
+    <t>5.2.3.5 *</t>
+  </si>
+  <si>
+    <t>Is there backscatter in eddy diffusity coeff in lateral physics tracers scheme ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.coeff_backscatter</t>
+  </si>
+  <si>
+    <t>5.2.4</t>
+  </si>
+  <si>
+    <t>Lateral Physics --&gt; Tracers --&gt; Eddy Induced Velocity</t>
+  </si>
+  <si>
+    <t>Properties of eddy induced velocity (EIV) in lateral physics tracers scheme in the ocean</t>
+  </si>
+  <si>
+    <t>5.2.4.1 *</t>
+  </si>
+  <si>
+    <t>Type of EIV in lateral physics tracers in the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>GM: Gent &amp; McWilliams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2.4.2 </t>
+  </si>
+  <si>
+    <t>Constant Val</t>
+  </si>
+  <si>
+    <t>If EIV scheme for tracers is constant, specify coefficient value (M2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.constant_val</t>
+  </si>
+  <si>
+    <t>5.2.4.3 *</t>
+  </si>
+  <si>
+    <t>Flux Type</t>
+  </si>
+  <si>
+    <t>Type of EIV flux (advective or skew)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.flux_type</t>
+  </si>
+  <si>
+    <t>Skew flux</t>
+  </si>
+  <si>
+    <t>5.2.4.4 *</t>
+  </si>
+  <si>
+    <t>Added Diffusivity</t>
+  </si>
+  <si>
+    <t>Type of EIV added diffusivity (constant, flow dependent or none)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.added_diffusivity</t>
+  </si>
+  <si>
+    <t>Flow dependent</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>Vertical Physics</t>
+  </si>
+  <si>
+    <t>Ocean Vertical Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the vertical physics in ocean model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of ocean vertical physics in ocean model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.overview</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>Vertical Physics --&gt; Boundary Layer Mixing --&gt; Details</t>
+  </si>
+  <si>
+    <t>Properties of vertical physics in ocean</t>
+  </si>
+  <si>
+    <t>6.1.2.1 *</t>
+  </si>
+  <si>
+    <t>Langmuir Cells Mixing</t>
+  </si>
+  <si>
+    <t>Is there Langmuir cells mixing in upper ocean ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.details.langmuir_cells_mixing</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>Vertical Physics --&gt; Boundary Layer Mixing --&gt; Tracers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties of boundary layer (BL) mixing on tracers in the ocean </t>
+  </si>
+  <si>
+    <t>6.1.3.1 *</t>
+  </si>
+  <si>
+    <t>Type of boundary layer mixing for tracers in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.type</t>
+  </si>
+  <si>
+    <t>Turbulent closure - KPP</t>
+  </si>
+  <si>
+    <t>Constant value</t>
+  </si>
+  <si>
+    <t>Turbulent closure - TKE</t>
+  </si>
+  <si>
+    <t>Turbulent closure - Mellor-Yamada</t>
+  </si>
+  <si>
+    <t>Turbulent closure - Bulk Mixed Layer</t>
+  </si>
+  <si>
+    <t>Richardson number dependent - PP</t>
+  </si>
+  <si>
+    <t>Richardson number dependent - KT</t>
+  </si>
+  <si>
+    <t>Imbeded as isopycnic vertical coordinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.3.2 </t>
+  </si>
+  <si>
+    <t>Closure Order</t>
+  </si>
+  <si>
+    <t>If turbulent BL mixing of tracers, specific order of closure (0, 1, 2.5, 3)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.closure_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.3.3 </t>
+  </si>
+  <si>
+    <t>If constant BL mixing of tracers, specific coefficient (m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.constant</t>
+  </si>
+  <si>
+    <t>6.1.3.4 *</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Background BL mixing of tracers coefficient, (schema and value in m2/s - may by none)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.background</t>
+  </si>
+  <si>
+    <t>Constant 10**-5 m**2/s</t>
+  </si>
+  <si>
+    <t>6.1.4</t>
+  </si>
+  <si>
+    <t>Vertical Physics --&gt; Boundary Layer Mixing --&gt; Momentum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties of boundary layer (BL) mixing on momentum in the ocean </t>
+  </si>
+  <si>
+    <t>6.1.4.1 *</t>
+  </si>
+  <si>
+    <t>Type of boundary layer mixing for momentum in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.4.2 </t>
+  </si>
+  <si>
+    <t>If turbulent BL mixing of momentum, specific order of closure (0, 1, 2.5, 3)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.closure_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.4.3 </t>
+  </si>
+  <si>
+    <t>If constant BL mixing of momentum, specific coefficient (m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.constant</t>
+  </si>
+  <si>
+    <t>6.1.4.4 *</t>
+  </si>
+  <si>
+    <t>Background BL mixing of momentum coefficient, (schema and value in m2/s - may by none)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.background</t>
+  </si>
+  <si>
+    <t>1e-4 m**2/s</t>
+  </si>
+  <si>
+    <t>6.1.5</t>
+  </si>
+  <si>
+    <t>Vertical Physics --&gt; Interior Mixing --&gt; Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties of interior mixing in the ocean </t>
+  </si>
+  <si>
+    <t>6.1.5.1 *</t>
+  </si>
+  <si>
+    <t>Convection Type</t>
+  </si>
+  <si>
+    <t>Type of vertical convection in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.details.convection_type</t>
+  </si>
+  <si>
+    <t>Enhanced vertical diffusion</t>
+  </si>
+  <si>
+    <t>Non-penetrative convective adjustment</t>
+  </si>
+  <si>
+    <t>Included in turbulence closure</t>
+  </si>
+  <si>
+    <t>6.1.5.2 *</t>
+  </si>
+  <si>
+    <t>Tide Induced Mixing</t>
+  </si>
+  <si>
+    <t>Describe how tide induced mixing is modelled (barotropic, baroclinic, none)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
+  </si>
+  <si>
+    <t>Baroclinic tides, Barotropic tides</t>
+  </si>
+  <si>
+    <t>6.1.5.3 *</t>
+  </si>
+  <si>
+    <t>Double Diffusion</t>
+  </si>
+  <si>
+    <t>Is there double diffusion</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.details.double_diffusion</t>
+  </si>
+  <si>
+    <t>6.1.5.4 *</t>
+  </si>
+  <si>
+    <t>Shear Mixing</t>
+  </si>
+  <si>
+    <t>Is interior shear mixing explicitly parameterised ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.details.shear_mixing</t>
+  </si>
+  <si>
+    <t>6.1.6</t>
+  </si>
+  <si>
+    <t>Vertical Physics --&gt; Interior Mixing --&gt; Tracers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties of interior mixing on tracers in the ocean </t>
+  </si>
+  <si>
+    <t>6.1.6.1 *</t>
+  </si>
+  <si>
+    <t>Type of interior mixing for tracers in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.type</t>
+  </si>
+  <si>
+    <t>Turbulent closure / TKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.6.2 </t>
+  </si>
+  <si>
+    <t>If constant interior mixing of tracers, specific coefficient (m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.constant</t>
+  </si>
+  <si>
+    <t>6.1.6.3 *</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Is the background interior mixing using a vertical profile for tracers (i.e is NOT constant) ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.profile</t>
+  </si>
+  <si>
+    <t>6.1.6.4 *</t>
+  </si>
+  <si>
+    <t>Background interior mixing of tracers coefficient, (schema and value in m2/s - may by none)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.background</t>
+  </si>
+  <si>
+    <t>10**-5 m**2/s</t>
+  </si>
+  <si>
+    <t>6.1.7</t>
+  </si>
+  <si>
+    <t>Vertical Physics --&gt; Interior Mixing --&gt; Momentum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties of interior mixing on momentum in the ocean </t>
+  </si>
+  <si>
+    <t>6.1.7.1 *</t>
+  </si>
+  <si>
+    <t>Type of interior mixing for momentum in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1.7.2 </t>
+  </si>
+  <si>
+    <t>If constant interior mixing of momentum, specific coefficient (m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.constant</t>
+  </si>
+  <si>
+    <t>6.1.7.3 *</t>
+  </si>
+  <si>
+    <t>Is the background interior mixing using a vertical profile for momentum (i.e is NOT constant) ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.profile</t>
+  </si>
+  <si>
+    <t>6.1.7.4 *</t>
+  </si>
+  <si>
+    <t>Background interior mixing of momentum coefficient, (schema and value in m2/s - may by none)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.background</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>Uplow Boundaries</t>
+  </si>
+  <si>
+    <t>Ocean upper / lower boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the uplow boundaries in ocean model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of ocean upper / lower boundaries in ocean model.</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.overview</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>Uplow Boundaries --&gt; Free Surface</t>
+  </si>
+  <si>
+    <t>Properties of free surface in ocean</t>
+  </si>
+  <si>
+    <t>7.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Free surface scheme in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.free_surface.scheme</t>
+  </si>
+  <si>
+    <t>Non-linear semi-explicit</t>
+  </si>
+  <si>
+    <t>Linear implicit</t>
+  </si>
+  <si>
+    <t>Linear filtered</t>
+  </si>
+  <si>
+    <t>Linear semi-explicit</t>
+  </si>
+  <si>
+    <t>Non-linear implicit</t>
+  </si>
+  <si>
+    <t>Non-linear filtered</t>
+  </si>
+  <si>
+    <t>Fully explicit</t>
+  </si>
+  <si>
+    <t>7.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Embeded Seaice</t>
+  </si>
+  <si>
+    <t>Is the sea-ice embeded in the ocean model (instead of levitating) ?</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.free_surface.embeded_seaice</t>
+  </si>
+  <si>
+    <t>7.3.1</t>
+  </si>
+  <si>
+    <t>Uplow Boundaries --&gt; Bottom Boundary Layer</t>
+  </si>
+  <si>
+    <t>Properties of bottom boundary layer in ocean</t>
+  </si>
+  <si>
+    <t>7.3.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of bottom boundary layer in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.overview</t>
+  </si>
+  <si>
+    <t>7.3.1.2 *</t>
+  </si>
+  <si>
+    <t>Type Of Bbl</t>
+  </si>
+  <si>
+    <t>Type of bottom boundary layer in ocean</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.type_of_bbl</t>
+  </si>
+  <si>
+    <t>Diffusive</t>
+  </si>
+  <si>
+    <t>Acvective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3.1.3 </t>
+  </si>
+  <si>
+    <t>Lateral Mixing Coef</t>
+  </si>
+  <si>
+    <t>If bottom BL is diffusive, specify value of lateral mixing coefficient (in m2/s)</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.lateral_mixing_coef</t>
+  </si>
+  <si>
+    <t>7.3.1.4 *</t>
+  </si>
+  <si>
+    <t>Sill Overflow</t>
+  </si>
+  <si>
+    <t>Describe any specific treatment of sill overflows</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.sill_overflow</t>
   </si>
   <si>
     <t>Specific treatment</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Properties of tracers time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Tracers time stepping scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
-  </si>
-  <si>
-    <t>Forward-backward</t>
-  </si>
-  <si>
-    <t>Leap-frog + Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2</t>
-  </si>
-  <si>
-    <t>AM3-LF</t>
-  </si>
-  <si>
-    <t>Forward operator</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Time Step</t>
-  </si>
-  <si>
-    <t>Tracers time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.tracers.time_step</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Baroclinic Dynamics</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics in ocean</t>
-  </si>
-  <si>
-    <t>3.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics type</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.type</t>
-  </si>
-  <si>
-    <t>Preconditioned conjugate gradient</t>
-  </si>
-  <si>
-    <t>Sub cyling</t>
-  </si>
-  <si>
-    <t>3.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Baroclinic dynamics scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Baroclinic time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.baroclinic_dynamics.time_step</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Barotropic</t>
-  </si>
-  <si>
-    <t>Barotropic time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Splitting</t>
-  </si>
-  <si>
-    <t>Time splitting method</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.barotropic.splitting</t>
-  </si>
-  <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.1.2 </t>
-  </si>
-  <si>
-    <t>Barotropic time step (in seconds)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.barotropic.time_step</t>
-  </si>
-  <si>
-    <t>3.5.1</t>
-  </si>
-  <si>
-    <t>Timestepping Framework --&gt; Vertical Physics</t>
-  </si>
-  <si>
-    <t>Vertical physics time stepping in ocean</t>
-  </si>
-  <si>
-    <t>3.5.1.1 *</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Details of vertical time stepping in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.timestepping_framework.vertical_physics.method</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Advection</t>
-  </si>
-  <si>
-    <t>Ocean advection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the advection in ocean model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of ocean advection in ocean model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.overview</t>
-  </si>
-  <si>
-    <t>vertical tracer advection use Sweby</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Advection --&gt; Momentum</t>
-  </si>
-  <si>
-    <t>Properties of lateral momemtum advection scheme in ocean</t>
-  </si>
-  <si>
-    <t>4.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Type of lateral momemtum advection scheme in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.momentum.type</t>
-  </si>
-  <si>
-    <t>Flux form</t>
-  </si>
-  <si>
-    <t>Vector form</t>
-  </si>
-  <si>
-    <t>4.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Scheme Name</t>
-  </si>
-  <si>
-    <t>Name of ocean momemtum advection scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.momentum.scheme_name</t>
-  </si>
-  <si>
-    <t>2nd order centered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.3 </t>
-  </si>
-  <si>
-    <t>ALE</t>
-  </si>
-  <si>
-    <t>Using ALE for vertical advection ? (if vertical coordinates are sigma)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.momentum.ALE</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>Advection --&gt; Lateral Tracers</t>
-  </si>
-  <si>
-    <t>Properties of lateral tracer advection scheme in ocean</t>
-  </si>
-  <si>
-    <t>4.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Order of lateral tracer advection scheme in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.lateral_tracers.order</t>
-  </si>
-  <si>
-    <t>4.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Flux Limiter</t>
-  </si>
-  <si>
-    <t>Monotonic flux limiter for lateral tracer advection scheme in ocean ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.lateral_tracers.flux_limiter</t>
-  </si>
-  <si>
-    <t>4.3.1.3 *</t>
-  </si>
-  <si>
-    <t>Effective Order</t>
-  </si>
-  <si>
-    <t>Effective order of limited lateral tracer advection scheme in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.lateral_tracers.effective_order</t>
-  </si>
-  <si>
-    <t>4.3.1.4 *</t>
-  </si>
-  <si>
-    <t>Descriptive text for lateral tracer advection scheme in ocean (e.g. MUSCL, PPM-H5, PRATHER,...)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.lateral_tracers.name</t>
-  </si>
-  <si>
-    <t>Sweby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.5 </t>
-  </si>
-  <si>
-    <t>Passive Tracers</t>
-  </si>
-  <si>
-    <t>Passive tracers advected</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.lateral_tracers.passive_tracers</t>
-  </si>
-  <si>
-    <t>Ideal age</t>
-  </si>
-  <si>
-    <t>CFC 11</t>
-  </si>
-  <si>
-    <t>CFC 12</t>
-  </si>
-  <si>
-    <t>SF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3.1.6 </t>
-  </si>
-  <si>
-    <t>Passive Tracers Advection</t>
-  </si>
-  <si>
-    <t>Is advection of passive tracers different than active ? if so, describe.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.lateral_tracers.passive_tracers_advection</t>
-  </si>
-  <si>
-    <t>4.4.1</t>
-  </si>
-  <si>
-    <t>Advection --&gt; Vertical Tracers</t>
-  </si>
-  <si>
-    <t>Properties of vertical tracer advection scheme in ocean</t>
-  </si>
-  <si>
-    <t>4.4.1.1 *</t>
-  </si>
-  <si>
-    <t>Descriptive text for vertical tracer advection scheme in ocean (e.g. MUSCL, PPM-H5, PRATHER,...)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.vertical_tracers.name</t>
-  </si>
-  <si>
-    <t>4.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Monotonic flux limiter for vertical tracer advection scheme in ocean ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.advection.vertical_tracers.flux_limiter</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Lateral Physics</t>
-  </si>
-  <si>
-    <t>Ocean lateral physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the lateral physics in ocean model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of ocean lateral physics in ocean model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Type of transient eddy representation in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.scheme</t>
-  </si>
-  <si>
-    <t>Eddy active</t>
-  </si>
-  <si>
-    <t>Eddy admitting</t>
-  </si>
-  <si>
-    <t>5.1.2</t>
-  </si>
-  <si>
-    <t>Lateral Physics --&gt; Momentum --&gt; Operator</t>
-  </si>
-  <si>
-    <t>Properties of lateral physics operator for momentum in ocean</t>
-  </si>
-  <si>
-    <t>5.1.2.1 *</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Direction of lateral physics momemtum scheme in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.momentum.operator.direction</t>
-  </si>
-  <si>
-    <t>Iso-level</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
-  </si>
-  <si>
-    <t>Isopycnal</t>
-  </si>
-  <si>
-    <t>Isoneutral</t>
-  </si>
-  <si>
-    <t>Geopotential</t>
-  </si>
-  <si>
-    <t>5.1.2.2 *</t>
-  </si>
-  <si>
-    <t>Order of lateral physics momemtum scheme in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
-  </si>
-  <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
-    <t>5.1.2.3 *</t>
-  </si>
-  <si>
-    <t>Discretisation</t>
-  </si>
-  <si>
-    <t>Discretisation of lateral physics momemtum scheme in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
-  </si>
-  <si>
-    <t>Second order</t>
-  </si>
-  <si>
-    <t>Higher order</t>
-  </si>
-  <si>
-    <t>Flux limiter</t>
-  </si>
-  <si>
-    <t>5.1.3</t>
-  </si>
-  <si>
-    <t>Lateral Physics --&gt; Momentum --&gt; Eddy Viscosity Coeff</t>
-  </si>
-  <si>
-    <t>Properties of eddy viscosity coeff in lateral physics momemtum scheme in the ocean</t>
-  </si>
-  <si>
-    <t>5.1.3.1 *</t>
-  </si>
-  <si>
-    <t>Lateral physics momemtum eddy viscosity coeff type in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.type</t>
-  </si>
-  <si>
-    <t>Time + space varying (Smagorinsky)</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Space varying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.3.2 </t>
-  </si>
-  <si>
-    <t>Constant Coefficient</t>
-  </si>
-  <si>
-    <t>If constant, value of eddy viscosity coeff in lateral physics momemtum scheme (in m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.constant_coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.3.3 </t>
-  </si>
-  <si>
-    <t>Variable Coefficient</t>
-  </si>
-  <si>
-    <t>If space-varying, describe variations of eddy viscosity coeff in lateral physics momemtum scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.variable_coefficient</t>
-  </si>
-  <si>
-    <t>5.1.3.4 *</t>
-  </si>
-  <si>
-    <t>Coeff Background</t>
-  </si>
-  <si>
-    <t>Describe background eddy viscosity coeff in lateral physics momemtum scheme (give values in m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.coeff_background</t>
-  </si>
-  <si>
-    <t>1e05 m2/sec</t>
-  </si>
-  <si>
-    <t>5.1.3.5 *</t>
-  </si>
-  <si>
-    <t>Coeff Backscatter</t>
-  </si>
-  <si>
-    <t>Is there backscatter in eddy viscosity coeff in lateral physics momemtum scheme ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.coeff_backscatter</t>
-  </si>
-  <si>
-    <t>5.2.1</t>
-  </si>
-  <si>
-    <t>Lateral Physics --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Properties of lateral physics for tracers in ocean</t>
-  </si>
-  <si>
-    <t>5.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Mesoscale Closure</t>
-  </si>
-  <si>
-    <t>Is there a mesoscale closure in the lateral physics tracers scheme ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.mesoscale_closure</t>
-  </si>
-  <si>
-    <t>5.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Submesoscale Mixing</t>
-  </si>
-  <si>
-    <t>Is there a submesoscale mixing parameterisation (i.e Fox-Kemper) in the lateral physics tracers scheme ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.submesoscale_mixing</t>
-  </si>
-  <si>
-    <t>5.2.2</t>
-  </si>
-  <si>
-    <t>Lateral Physics --&gt; Tracers --&gt; Operator</t>
-  </si>
-  <si>
-    <t>Properties of lateral physics operator for tracers in ocean</t>
-  </si>
-  <si>
-    <t>5.2.2.1 *</t>
-  </si>
-  <si>
-    <t>Direction of lateral physics tracers scheme in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.operator.direction</t>
-  </si>
-  <si>
-    <t>5.2.2.2 *</t>
-  </si>
-  <si>
-    <t>Order of lateral physics tracers scheme in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.operator.order</t>
-  </si>
-  <si>
-    <t>5.2.2.3 *</t>
-  </si>
-  <si>
-    <t>Discretisation of lateral physics tracers scheme in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.operator.discretisation</t>
-  </si>
-  <si>
-    <t>5.2.3</t>
-  </si>
-  <si>
-    <t>Lateral Physics --&gt; Tracers --&gt; Eddy Diffusity Coeff</t>
-  </si>
-  <si>
-    <t>Properties of eddy diffusity coeff in lateral physics tracers scheme in the ocean</t>
-  </si>
-  <si>
-    <t>5.2.3.1 *</t>
-  </si>
-  <si>
-    <t>Lateral physics tracers eddy diffusity coeff type in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.3.2 </t>
-  </si>
-  <si>
-    <t>If constant, value of eddy diffusity coeff in lateral physics tracers scheme (in m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.constant_coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.3.3 </t>
-  </si>
-  <si>
-    <t>If space-varying, describe variations of eddy diffusity coeff in lateral physics tracers scheme</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.variable_coefficient</t>
-  </si>
-  <si>
-    <t>5.2.3.4 *</t>
-  </si>
-  <si>
-    <t>Describe background eddy diffusity coeff in lateral physics tracers scheme (give values in m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.coeff_background</t>
-  </si>
-  <si>
-    <t>5.2.3.5 *</t>
-  </si>
-  <si>
-    <t>Is there backscatter in eddy diffusity coeff in lateral physics tracers scheme ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_diffusity_coeff.coeff_backscatter</t>
-  </si>
-  <si>
-    <t>5.2.4</t>
-  </si>
-  <si>
-    <t>Lateral Physics --&gt; Tracers --&gt; Eddy Induced Velocity</t>
-  </si>
-  <si>
-    <t>Properties of eddy induced velocity (EIV) in lateral physics tracers scheme in the ocean</t>
-  </si>
-  <si>
-    <t>5.2.4.1 *</t>
-  </si>
-  <si>
-    <t>Type of EIV in lateral physics tracers in the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.4.2 </t>
-  </si>
-  <si>
-    <t>Constant Val</t>
-  </si>
-  <si>
-    <t>If EIV scheme for tracers is constant, specify coefficient value (M2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.constant_val</t>
-  </si>
-  <si>
-    <t>5.2.4.3 *</t>
-  </si>
-  <si>
-    <t>Flux Type</t>
-  </si>
-  <si>
-    <t>Type of EIV flux (advective or skew)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.flux_type</t>
-  </si>
-  <si>
-    <t>Skew flux</t>
-  </si>
-  <si>
-    <t>5.2.4.4 *</t>
-  </si>
-  <si>
-    <t>Added Diffusivity</t>
-  </si>
-  <si>
-    <t>Type of EIV added diffusivity (constant, flow dependent or none)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.added_diffusivity</t>
-  </si>
-  <si>
-    <t>Flow dependent</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>Vertical Physics</t>
-  </si>
-  <si>
-    <t>Ocean Vertical Physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the vertical physics in ocean model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of ocean vertical physics in ocean model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.overview</t>
-  </si>
-  <si>
-    <t>6.1.2</t>
-  </si>
-  <si>
-    <t>Vertical Physics --&gt; Boundary Layer Mixing --&gt; Details</t>
-  </si>
-  <si>
-    <t>Properties of vertical physics in ocean</t>
-  </si>
-  <si>
-    <t>6.1.2.1 *</t>
-  </si>
-  <si>
-    <t>Langmuir Cells Mixing</t>
-  </si>
-  <si>
-    <t>Is there Langmuir cells mixing in upper ocean ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.details.langmuir_cells_mixing</t>
-  </si>
-  <si>
-    <t>6.1.3</t>
-  </si>
-  <si>
-    <t>Vertical Physics --&gt; Boundary Layer Mixing --&gt; Tracers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Properties of boundary layer (BL) mixing on tracers in the ocean </t>
-  </si>
-  <si>
-    <t>6.1.3.1 *</t>
-  </si>
-  <si>
-    <t>Type of boundary layer mixing for tracers in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.type</t>
-  </si>
-  <si>
-    <t>Turbulent closure - KPP</t>
-  </si>
-  <si>
-    <t>Constant value</t>
-  </si>
-  <si>
-    <t>Turbulent closure - TKE</t>
-  </si>
-  <si>
-    <t>Turbulent closure - Mellor-Yamada</t>
-  </si>
-  <si>
-    <t>Turbulent closure - Bulk Mixed Layer</t>
-  </si>
-  <si>
-    <t>Richardson number dependent - PP</t>
-  </si>
-  <si>
-    <t>Richardson number dependent - KT</t>
-  </si>
-  <si>
-    <t>Imbeded as isopycnic vertical coordinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.3.2 </t>
-  </si>
-  <si>
-    <t>Closure Order</t>
-  </si>
-  <si>
-    <t>If turbulent BL mixing of tracers, specific order of closure (0, 1, 2.5, 3)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.closure_order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.3.3 </t>
-  </si>
-  <si>
-    <t>If constant BL mixing of tracers, specific coefficient (m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.constant</t>
-  </si>
-  <si>
-    <t>6.1.3.4 *</t>
-  </si>
-  <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>Background BL mixing of tracers coefficient, (schema and value in m2/s - may by none)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.background</t>
-  </si>
-  <si>
-    <t>Constant 10**-5 m**2/s</t>
-  </si>
-  <si>
-    <t>6.1.4</t>
-  </si>
-  <si>
-    <t>Vertical Physics --&gt; Boundary Layer Mixing --&gt; Momentum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Properties of boundary layer (BL) mixing on momentum in the ocean </t>
-  </si>
-  <si>
-    <t>6.1.4.1 *</t>
-  </si>
-  <si>
-    <t>Type of boundary layer mixing for momentum in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.4.2 </t>
-  </si>
-  <si>
-    <t>If turbulent BL mixing of momentum, specific order of closure (0, 1, 2.5, 3)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.closure_order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.4.3 </t>
-  </si>
-  <si>
-    <t>If constant BL mixing of momentum, specific coefficient (m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.constant</t>
-  </si>
-  <si>
-    <t>6.1.4.4 *</t>
-  </si>
-  <si>
-    <t>Background BL mixing of momentum coefficient, (schema and value in m2/s - may by none)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.background</t>
-  </si>
-  <si>
-    <t>1e-4 m**2/s</t>
-  </si>
-  <si>
-    <t>6.1.5</t>
-  </si>
-  <si>
-    <t>Vertical Physics --&gt; Interior Mixing --&gt; Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Properties of interior mixing in the ocean </t>
-  </si>
-  <si>
-    <t>6.1.5.1 *</t>
-  </si>
-  <si>
-    <t>Convection Type</t>
-  </si>
-  <si>
-    <t>Type of vertical convection in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.details.convection_type</t>
-  </si>
-  <si>
-    <t>Enhanced vertical diffusion</t>
-  </si>
-  <si>
-    <t>Non-penetrative convective adjustment</t>
-  </si>
-  <si>
-    <t>Included in turbulence closure</t>
-  </si>
-  <si>
-    <t>6.1.5.2 *</t>
-  </si>
-  <si>
-    <t>Tide Induced Mixing</t>
-  </si>
-  <si>
-    <t>Describe how tide induced mixing is modelled (barotropic, baroclinic, none)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
-  </si>
-  <si>
-    <t>Baroclinic tides, Barotropic tides</t>
-  </si>
-  <si>
-    <t>6.1.5.3 *</t>
-  </si>
-  <si>
-    <t>Double Diffusion</t>
-  </si>
-  <si>
-    <t>Is there double diffusion</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.details.double_diffusion</t>
-  </si>
-  <si>
-    <t>6.1.5.4 *</t>
-  </si>
-  <si>
-    <t>Shear Mixing</t>
-  </si>
-  <si>
-    <t>Is interior shear mixing explicitly parameterised ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.details.shear_mixing</t>
-  </si>
-  <si>
-    <t>6.1.6</t>
-  </si>
-  <si>
-    <t>Vertical Physics --&gt; Interior Mixing --&gt; Tracers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Properties of interior mixing on tracers in the ocean </t>
-  </si>
-  <si>
-    <t>6.1.6.1 *</t>
-  </si>
-  <si>
-    <t>Type of interior mixing for tracers in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.type</t>
-  </si>
-  <si>
-    <t>Turbulent closure / TKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.6.2 </t>
-  </si>
-  <si>
-    <t>If constant interior mixing of tracers, specific coefficient (m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.constant</t>
-  </si>
-  <si>
-    <t>6.1.6.3 *</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Is the background interior mixing using a vertical profile for tracers (i.e is NOT constant) ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.profile</t>
-  </si>
-  <si>
-    <t>6.1.6.4 *</t>
-  </si>
-  <si>
-    <t>Background interior mixing of tracers coefficient, (schema and value in m2/s - may by none)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.background</t>
-  </si>
-  <si>
-    <t>10**-5 m**2/s</t>
-  </si>
-  <si>
-    <t>6.1.7</t>
-  </si>
-  <si>
-    <t>Vertical Physics --&gt; Interior Mixing --&gt; Momentum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Properties of interior mixing on momentum in the ocean </t>
-  </si>
-  <si>
-    <t>6.1.7.1 *</t>
-  </si>
-  <si>
-    <t>Type of interior mixing for momentum in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1.7.2 </t>
-  </si>
-  <si>
-    <t>If constant interior mixing of momentum, specific coefficient (m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.constant</t>
-  </si>
-  <si>
-    <t>6.1.7.3 *</t>
-  </si>
-  <si>
-    <t>Is the background interior mixing using a vertical profile for momentum (i.e is NOT constant) ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.profile</t>
-  </si>
-  <si>
-    <t>6.1.7.4 *</t>
-  </si>
-  <si>
-    <t>Background interior mixing of momentum coefficient, (schema and value in m2/s - may by none)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.background</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>Uplow Boundaries</t>
-  </si>
-  <si>
-    <t>Ocean upper / lower boundaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the uplow boundaries in ocean model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.uplow_boundaries.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of ocean upper / lower boundaries in ocean model.</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.uplow_boundaries.overview</t>
-  </si>
-  <si>
-    <t>7.2.1</t>
-  </si>
-  <si>
-    <t>Uplow Boundaries --&gt; Free Surface</t>
-  </si>
-  <si>
-    <t>Properties of free surface in ocean</t>
-  </si>
-  <si>
-    <t>7.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Free surface scheme in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.uplow_boundaries.free_surface.scheme</t>
-  </si>
-  <si>
-    <t>Non-linear semi-explicit</t>
-  </si>
-  <si>
-    <t>Linear implicit</t>
-  </si>
-  <si>
-    <t>Linear filtered</t>
-  </si>
-  <si>
-    <t>Linear semi-explicit</t>
-  </si>
-  <si>
-    <t>Non-linear implicit</t>
-  </si>
-  <si>
-    <t>Non-linear filtered</t>
-  </si>
-  <si>
-    <t>Fully explicit</t>
-  </si>
-  <si>
-    <t>7.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Embeded Seaice</t>
-  </si>
-  <si>
-    <t>Is the sea-ice embeded in the ocean model (instead of levitating) ?</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.uplow_boundaries.free_surface.embeded_seaice</t>
-  </si>
-  <si>
-    <t>7.3.1</t>
-  </si>
-  <si>
-    <t>Uplow Boundaries --&gt; Bottom Boundary Layer</t>
-  </si>
-  <si>
-    <t>Properties of bottom boundary layer in ocean</t>
-  </si>
-  <si>
-    <t>7.3.1.1 *</t>
-  </si>
-  <si>
-    <t>Overview of bottom boundary layer in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.overview</t>
-  </si>
-  <si>
-    <t>7.3.1.2 *</t>
-  </si>
-  <si>
-    <t>Type Of Bbl</t>
-  </si>
-  <si>
-    <t>Type of bottom boundary layer in ocean</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.type_of_bbl</t>
-  </si>
-  <si>
-    <t>Diffusive</t>
-  </si>
-  <si>
-    <t>Acvective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.1.3 </t>
-  </si>
-  <si>
-    <t>Lateral Mixing Coef</t>
-  </si>
-  <si>
-    <t>If bottom BL is diffusive, specify value of lateral mixing coefficient (in m2/s)</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.lateral_mixing_coef</t>
-  </si>
-  <si>
-    <t>7.3.1.4 *</t>
-  </si>
-  <si>
-    <t>Sill Overflow</t>
-  </si>
-  <si>
-    <t>Describe any specific treatment of sill overflows</t>
-  </si>
-  <si>
-    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.sill_overflow</t>
   </si>
   <si>
     <t>8.1.1</t>
@@ -3152,20 +3179,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3176,10 +3203,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3187,7 +3214,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3198,10 +3225,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3214,10 +3241,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3225,10 +3252,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3236,10 +3263,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3247,10 +3274,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3260,15 +3287,15 @@
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3276,10 +3303,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3292,10 +3319,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3303,10 +3330,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3319,10 +3346,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3330,10 +3357,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3346,10 +3373,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3357,10 +3384,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3370,28 +3397,28 @@
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -3399,30 +3426,30 @@
         <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="AA48" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>66</v>
@@ -3430,23 +3457,23 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -3454,24 +3481,24 @@
         <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>66</v>
@@ -3479,23 +3506,23 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3503,22 +3530,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>66</v>
@@ -3526,21 +3553,21 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3550,10 +3577,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3561,10 +3588,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3577,10 +3604,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3588,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3604,23 +3631,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3628,19 +3655,19 @@
         <v>60</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>66</v>
@@ -3648,10 +3675,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3659,22 +3686,22 @@
         <v>60</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>66</v>
@@ -3682,10 +3709,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3693,10 +3720,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -4078,7 +4105,7 @@
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA32" s="6" t="s">
         <v>78</v>
@@ -4223,23 +4250,23 @@
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -4247,30 +4274,30 @@
         <v>60</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AB44" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD44" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="AE44" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF44" s="6" t="s">
         <v>66</v>
@@ -4278,10 +4305,10 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
@@ -4289,10 +4316,10 @@
         <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="24" customHeight="1">
@@ -4306,10 +4333,10 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
@@ -4317,27 +4344,27 @@
         <v>60</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
@@ -4345,27 +4372,27 @@
         <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
@@ -4373,18 +4400,18 @@
         <v>60</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA60" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB60" s="6" t="s">
         <v>66</v>
@@ -4392,21 +4419,21 @@
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="24" customHeight="1">
@@ -4414,21 +4441,21 @@
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
@@ -4436,23 +4463,23 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
@@ -4460,30 +4487,30 @@
         <v>60</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF76" s="6" t="s">
         <v>66</v>
@@ -4491,21 +4518,21 @@
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="24" customHeight="1">
@@ -4515,10 +4542,10 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4526,10 +4553,10 @@
         <v>44</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4542,10 +4569,10 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -4553,10 +4580,10 @@
         <v>44</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4564,23 +4591,23 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -4588,10 +4615,10 @@
         <v>44</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4601,15 +4628,15 @@
     </row>
     <row r="98" spans="1:3" ht="178" customHeight="1">
       <c r="B98" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -4617,10 +4644,10 @@
         <v>44</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -4630,28 +4657,28 @@
     </row>
     <row r="103" spans="1:3" ht="178" customHeight="1">
       <c r="B103" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -4659,10 +4686,10 @@
         <v>44</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -4670,10 +4697,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -4681,10 +4708,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -4692,10 +4719,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -4703,10 +4730,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -4719,20 +4746,20 @@
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="A123" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="B124" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>43</v>
@@ -4743,10 +4770,10 @@
         <v>44</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -4754,10 +4781,10 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -4765,10 +4792,10 @@
         <v>44</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -4776,10 +4803,10 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -4787,10 +4814,10 @@
         <v>44</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -4798,21 +4825,21 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -4820,21 +4847,21 @@
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -4842,21 +4869,21 @@
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -4864,21 +4891,21 @@
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
@@ -4886,23 +4913,23 @@
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="A155" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="A158" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
@@ -4910,10 +4937,10 @@
         <v>44</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
@@ -4926,10 +4953,10 @@
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -4937,10 +4964,10 @@
         <v>44</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -4953,10 +4980,10 @@
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -4964,10 +4991,10 @@
         <v>44</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
@@ -4980,10 +5007,10 @@
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -4991,10 +5018,10 @@
         <v>44</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="24" customHeight="1">
@@ -5007,23 +5034,23 @@
     </row>
     <row r="179" spans="1:32" ht="24" customHeight="1">
       <c r="A179" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:32" ht="24" customHeight="1">
       <c r="B180" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:32" ht="24" customHeight="1">
       <c r="A182" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="183" spans="1:32" ht="24" customHeight="1">
@@ -5031,10 +5058,10 @@
         <v>44</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:32" ht="24" customHeight="1">
@@ -5047,10 +5074,10 @@
     </row>
     <row r="187" spans="1:32" ht="24" customHeight="1">
       <c r="A187" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:32" ht="24" customHeight="1">
@@ -5058,10 +5085,10 @@
         <v>60</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="24" customHeight="1">
@@ -5072,19 +5099,19 @@
     <row r="190" spans="1:32" ht="24" customHeight="1">
       <c r="B190" s="11"/>
       <c r="AA190" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB190" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AC190" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AD190" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AE190" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF190" s="6" t="s">
         <v>66</v>
@@ -5092,10 +5119,10 @@
     </row>
     <row r="192" spans="1:32" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
@@ -5103,10 +5130,10 @@
         <v>44</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -5119,10 +5146,10 @@
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
       <c r="A197" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
@@ -5130,10 +5157,10 @@
         <v>44</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
@@ -5146,21 +5173,21 @@
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
@@ -5264,20 +5291,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5288,10 +5315,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5299,7 +5326,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5310,10 +5337,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5326,23 +5353,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
@@ -5350,52 +5377,52 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>66</v>
@@ -5403,21 +5430,21 @@
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5425,23 +5452,23 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
@@ -5449,22 +5476,22 @@
         <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>66</v>
@@ -5472,10 +5499,10 @@
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
@@ -5483,25 +5510,25 @@
         <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>66</v>
@@ -5509,10 +5536,10 @@
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
@@ -5520,27 +5547,27 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AE39" s="6" t="s">
         <v>66</v>
@@ -5584,20 +5611,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5608,10 +5635,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5619,7 +5646,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5630,10 +5657,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5646,10 +5673,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5657,22 +5684,22 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>66</v>
@@ -5680,23 +5707,23 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -5704,36 +5731,36 @@
         <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AH23" s="6" t="s">
         <v>66</v>
@@ -5741,21 +5768,21 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5763,23 +5790,23 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
@@ -5787,19 +5814,19 @@
         <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AC35" s="6" t="s">
         <v>66</v>
@@ -5807,10 +5834,10 @@
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
@@ -5818,34 +5845,34 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AH39" s="6" t="s">
         <v>66</v>
@@ -5853,21 +5880,21 @@
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5875,23 +5902,23 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -5899,22 +5926,22 @@
         <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>66</v>
@@ -5922,21 +5949,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5944,23 +5971,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5968,10 +5995,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -6024,20 +6051,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6048,10 +6075,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6059,7 +6086,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6070,10 +6097,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6083,28 +6110,28 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
@@ -6112,29 +6139,29 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6142,34 +6169,34 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -6177,34 +6204,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6212,21 +6239,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -6236,21 +6263,21 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6258,7 +6285,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6269,23 +6296,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6293,10 +6320,10 @@
         <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6307,16 +6334,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>66</v>
@@ -6324,10 +6351,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6335,10 +6362,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6346,20 +6373,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6370,10 +6397,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6381,21 +6408,21 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -6448,20 +6475,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6472,10 +6499,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6483,7 +6510,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6494,10 +6521,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6510,10 +6537,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -6521,43 +6548,43 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>328</v>
+        <v>463</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6565,30 +6592,30 @@
         <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AD23" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE23" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>66</v>
@@ -6596,10 +6623,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6607,21 +6634,21 @@
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>66</v>
@@ -6629,10 +6656,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6640,24 +6667,24 @@
         <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>66</v>
@@ -6665,23 +6692,23 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
@@ -6689,24 +6716,24 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>66</v>
@@ -6714,21 +6741,21 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6736,10 +6763,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6747,10 +6774,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6758,10 +6785,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6769,34 +6796,34 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6804,34 +6831,34 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6841,21 +6868,21 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6863,23 +6890,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6887,30 +6914,30 @@
         <v>60</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AD75" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE75" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="AE75" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>66</v>
@@ -6918,10 +6945,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6929,21 +6956,21 @@
         <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>66</v>
@@ -6951,10 +6978,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6962,24 +6989,24 @@
         <v>60</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>66</v>
@@ -6987,23 +7014,23 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
@@ -7011,24 +7038,24 @@
         <v>60</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>66</v>
@@ -7036,21 +7063,21 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7060,10 +7087,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7071,10 +7098,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7082,21 +7109,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7106,21 +7133,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -7128,23 +7155,23 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
@@ -7152,18 +7179,18 @@
         <v>60</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AA115" s="6" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>66</v>
@@ -7171,21 +7198,21 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -7193,10 +7220,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7204,23 +7231,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7228,15 +7255,15 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -7316,20 +7343,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7340,10 +7367,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7351,7 +7378,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -7362,10 +7389,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7378,34 +7405,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7413,23 +7440,23 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
@@ -7437,39 +7464,39 @@
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>66</v>
@@ -7477,21 +7504,21 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7499,21 +7526,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7521,10 +7548,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7532,36 +7559,36 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
@@ -7569,39 +7596,39 @@
         <v>60</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>66</v>
@@ -7609,21 +7636,21 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7631,21 +7658,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7653,10 +7680,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7664,36 +7691,36 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7701,24 +7728,24 @@
         <v>60</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>66</v>
@@ -7726,10 +7753,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7737,34 +7764,34 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7772,21 +7799,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7794,23 +7821,23 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
@@ -7818,31 +7845,31 @@
         <v>60</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>66</v>
@@ -7850,21 +7877,21 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7872,21 +7899,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7894,10 +7921,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7905,36 +7932,36 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="11" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
@@ -7942,31 +7969,31 @@
         <v>60</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>66</v>
@@ -7974,21 +8001,21 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -7996,10 +8023,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -8007,10 +8034,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8018,10 +8045,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -8029,15 +8056,15 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -8110,20 +8137,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -8134,10 +8161,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8145,7 +8172,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -8156,10 +8183,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8172,23 +8199,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
@@ -8196,36 +8223,36 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>66</v>
@@ -8233,21 +8260,21 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -8255,20 +8282,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -8279,10 +8306,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -8295,10 +8322,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -8306,21 +8333,21 @@
         <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>66</v>
@@ -8328,21 +8355,21 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8352,10 +8379,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8363,10 +8390,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -8376,7 +8403,7 @@
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>330</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
+++ b/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="828">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -217,10 +217,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>Slab ocean</t>
-  </si>
-  <si>
-    <t>Mixed layer ocean</t>
+    <t>slab ocean</t>
+  </si>
+  <si>
+    <t>mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>SSH: Sea Surface Height</t>
-  </si>
-  <si>
-    <t>SSH</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -1043,7 +1040,7 @@
     <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
   </si>
   <si>
-    <t>Forward-backward</t>
+    <t>Forward-backward: Forward-backward scheme</t>
   </si>
   <si>
     <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
@@ -1061,9 +1058,6 @@
     <t>AM3-LF: AM3-LF such as used in ROMS</t>
   </si>
   <si>
-    <t>Forward-backward: Forward-backward scheme</t>
-  </si>
-  <si>
     <t>Forward operator: Forward operator scheme</t>
   </si>
   <si>
@@ -1145,10 +1139,10 @@
     <t>None</t>
   </si>
   <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
+    <t>split explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1472,15 +1466,12 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Bi-harmonic</t>
+    <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
     <t>Harmonic: Second order</t>
   </si>
   <si>
-    <t>Bi-harmonic: Fourth order</t>
-  </si>
-  <si>
     <t>5.1.2.3 *</t>
   </si>
   <si>
@@ -1493,9 +1484,6 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order</t>
-  </si>
-  <si>
     <t>Second order: Second order</t>
   </si>
   <si>
@@ -1643,9 +1631,6 @@
     <t>cmip6.ocean.lateral_physics.tracers.operator.order</t>
   </si>
   <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
     <t>5.2.2.3 *</t>
   </si>
   <si>
@@ -1725,9 +1710,6 @@
   </si>
   <si>
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
-  </si>
-  <si>
-    <t>GM</t>
   </si>
   <si>
     <t>GM: Gent &amp; McWilliams</t>
@@ -3179,20 +3161,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3203,10 +3185,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3214,7 +3196,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3225,10 +3207,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3241,10 +3223,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3252,10 +3234,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3263,10 +3245,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3274,10 +3256,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3287,15 +3269,15 @@
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3303,10 +3285,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3319,10 +3301,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3330,10 +3312,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3346,10 +3328,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3357,10 +3339,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3373,10 +3355,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3384,10 +3366,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3397,28 +3379,28 @@
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -3426,30 +3408,30 @@
         <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="AA48" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>66</v>
@@ -3457,23 +3439,23 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -3481,24 +3463,24 @@
         <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>66</v>
@@ -3506,23 +3488,23 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3530,22 +3512,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>66</v>
@@ -3553,21 +3535,21 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3577,10 +3559,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3588,10 +3570,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3604,10 +3586,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3615,10 +3597,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3631,23 +3613,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3655,19 +3637,19 @@
         <v>60</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>66</v>
@@ -3675,10 +3657,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3686,22 +3668,22 @@
         <v>60</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="AB90" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="AC90" s="6" t="s">
         <v>823</v>
-      </c>
-      <c r="AB90" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="AC90" s="6" t="s">
-        <v>829</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>66</v>
@@ -3709,10 +3691,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3720,10 +3702,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -4105,7 +4087,7 @@
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA32" s="6" t="s">
         <v>78</v>
@@ -4250,23 +4232,23 @@
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -4274,30 +4256,30 @@
         <v>60</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AA44" s="6" t="s">
+      <c r="AB44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AB44" s="6" t="s">
+      <c r="AC44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AC44" s="6" t="s">
+      <c r="AD44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE44" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="AD44" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE44" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="AF44" s="6" t="s">
         <v>66</v>
@@ -4305,10 +4287,10 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
@@ -4316,10 +4298,10 @@
         <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="24" customHeight="1">
@@ -4333,10 +4315,10 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
@@ -4344,27 +4326,27 @@
         <v>60</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB52" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="AB52" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
@@ -4372,27 +4354,27 @@
         <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB56" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="AB56" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
@@ -4400,18 +4382,18 @@
         <v>60</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA60" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB60" s="6" t="s">
         <v>66</v>
@@ -4419,21 +4401,21 @@
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="24" customHeight="1">
@@ -4441,21 +4423,21 @@
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
@@ -4463,23 +4445,23 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
@@ -4487,30 +4469,30 @@
         <v>60</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA76" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB76" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA76" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB76" s="6" t="s">
+      <c r="AC76" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AC76" s="6" t="s">
+      <c r="AD76" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AD76" s="6" t="s">
+      <c r="AE76" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="AE76" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="AF76" s="6" t="s">
         <v>66</v>
@@ -4518,21 +4500,21 @@
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="24" customHeight="1">
@@ -4542,10 +4524,10 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4553,10 +4535,10 @@
         <v>44</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4569,10 +4551,10 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -4580,10 +4562,10 @@
         <v>44</v>
       </c>
       <c r="B88" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4591,23 +4573,23 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -4615,10 +4597,10 @@
         <v>44</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4628,15 +4610,15 @@
     </row>
     <row r="98" spans="1:3" ht="178" customHeight="1">
       <c r="B98" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -4644,10 +4626,10 @@
         <v>44</v>
       </c>
       <c r="B101" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -4657,28 +4639,28 @@
     </row>
     <row r="103" spans="1:3" ht="178" customHeight="1">
       <c r="B103" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -4686,10 +4668,10 @@
         <v>44</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -4697,10 +4679,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -4708,10 +4690,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -4719,10 +4701,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -4730,10 +4712,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -4746,20 +4728,20 @@
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="A123" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="B124" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>43</v>
@@ -4770,10 +4752,10 @@
         <v>44</v>
       </c>
       <c r="B127" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -4781,10 +4763,10 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -4792,10 +4774,10 @@
         <v>44</v>
       </c>
       <c r="B131" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -4803,10 +4785,10 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -4814,10 +4796,10 @@
         <v>44</v>
       </c>
       <c r="B135" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -4825,21 +4807,21 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -4847,21 +4829,21 @@
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B143" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -4869,21 +4851,21 @@
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -4891,21 +4873,21 @@
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B151" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
@@ -4913,23 +4895,23 @@
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="A155" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="A158" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
@@ -4937,10 +4919,10 @@
         <v>44</v>
       </c>
       <c r="B159" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
@@ -4953,10 +4935,10 @@
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -4964,10 +4946,10 @@
         <v>44</v>
       </c>
       <c r="B164" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -4980,10 +4962,10 @@
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -4991,10 +4973,10 @@
         <v>44</v>
       </c>
       <c r="B169" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
@@ -5007,10 +4989,10 @@
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5018,10 +5000,10 @@
         <v>44</v>
       </c>
       <c r="B174" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="24" customHeight="1">
@@ -5034,23 +5016,23 @@
     </row>
     <row r="179" spans="1:32" ht="24" customHeight="1">
       <c r="A179" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:32" ht="24" customHeight="1">
       <c r="B180" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="182" spans="1:32" ht="24" customHeight="1">
       <c r="A182" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:32" ht="24" customHeight="1">
@@ -5058,10 +5040,10 @@
         <v>44</v>
       </c>
       <c r="B183" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C183" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:32" ht="24" customHeight="1">
@@ -5074,10 +5056,10 @@
     </row>
     <row r="187" spans="1:32" ht="24" customHeight="1">
       <c r="A187" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:32" ht="24" customHeight="1">
@@ -5085,10 +5067,10 @@
         <v>60</v>
       </c>
       <c r="B188" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C188" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="24" customHeight="1">
@@ -5099,19 +5081,19 @@
     <row r="190" spans="1:32" ht="24" customHeight="1">
       <c r="B190" s="11"/>
       <c r="AA190" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB190" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AB190" s="6" t="s">
+      <c r="AC190" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="AC190" s="6" t="s">
+      <c r="AD190" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AD190" s="6" t="s">
+      <c r="AE190" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="AE190" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="AF190" s="6" t="s">
         <v>66</v>
@@ -5119,10 +5101,10 @@
     </row>
     <row r="192" spans="1:32" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
@@ -5130,10 +5112,10 @@
         <v>44</v>
       </c>
       <c r="B193" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -5146,10 +5128,10 @@
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
       <c r="A197" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
@@ -5157,10 +5139,10 @@
         <v>44</v>
       </c>
       <c r="B198" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
@@ -5173,21 +5155,21 @@
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B203" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
@@ -5291,20 +5273,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5315,10 +5297,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5326,7 +5308,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5337,10 +5319,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5353,23 +5335,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
@@ -5377,52 +5359,52 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AC19" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AD19" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AE19" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AH19" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AI19" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AI19" s="6" t="s">
+      <c r="AJ19" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AK19" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AK19" s="6" t="s">
+      <c r="AL19" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AM19" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="AM19" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>66</v>
@@ -5430,21 +5412,21 @@
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5452,23 +5434,23 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
@@ -5476,22 +5458,22 @@
         <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB31" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="AB31" s="6" t="s">
+      <c r="AC31" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>66</v>
@@ -5499,10 +5481,10 @@
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
@@ -5510,25 +5492,25 @@
         <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB35" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AB35" s="6" t="s">
+      <c r="AC35" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="AC35" s="6" t="s">
+      <c r="AD35" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>66</v>
@@ -5536,10 +5518,10 @@
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
@@ -5547,27 +5529,27 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA39" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AA39" s="6" t="s">
+      <c r="AB39" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AB39" s="6" t="s">
+      <c r="AC39" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AC39" s="6" t="s">
+      <c r="AD39" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="AE39" s="6" t="s">
         <v>66</v>
@@ -5611,20 +5593,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5635,10 +5617,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5646,7 +5628,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5657,10 +5639,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5673,10 +5655,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5684,22 +5666,22 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB15" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="AB15" s="6" t="s">
+      <c r="AC15" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>66</v>
@@ -5707,23 +5689,23 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -5731,36 +5713,36 @@
         <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA23" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AB23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AC23" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AE23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG23" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="AH23" s="6" t="s">
         <v>66</v>
@@ -5768,21 +5750,21 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5790,23 +5772,23 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
@@ -5814,19 +5796,19 @@
         <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AC35" s="6" t="s">
         <v>66</v>
@@ -5834,10 +5816,10 @@
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
@@ -5845,34 +5827,34 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB39" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AB39" s="6" t="s">
+      <c r="AC39" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AC39" s="6" t="s">
+      <c r="AD39" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AE39" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AE39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG39" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="AH39" s="6" t="s">
         <v>66</v>
@@ -5880,21 +5862,21 @@
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5902,23 +5884,23 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -5926,22 +5908,22 @@
         <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC51" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="AB51" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC51" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>66</v>
@@ -5949,21 +5931,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5971,23 +5953,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5995,10 +5977,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -6051,20 +6033,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6075,10 +6057,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6086,7 +6068,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6097,10 +6079,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6110,28 +6092,28 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
@@ -6139,29 +6121,29 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6169,34 +6151,34 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -6204,34 +6186,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6239,21 +6221,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -6263,21 +6245,21 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6285,7 +6267,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6296,23 +6278,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6320,10 +6302,10 @@
         <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6334,16 +6316,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC52" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="AB52" s="6" t="s">
+      <c r="AD52" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="AC52" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD52" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>66</v>
@@ -6351,10 +6333,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6362,10 +6344,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6373,20 +6355,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6397,10 +6379,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6408,21 +6390,21 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -6475,20 +6457,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6499,10 +6481,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6510,7 +6492,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6521,10 +6503,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6537,10 +6519,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -6548,43 +6530,43 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6592,30 +6574,30 @@
         <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AC23" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AC23" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>477</v>
-      </c>
       <c r="AE23" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>66</v>
@@ -6623,10 +6605,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6634,21 +6616,21 @@
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>66</v>
@@ -6656,10 +6638,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6667,24 +6649,24 @@
         <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>66</v>
@@ -6692,23 +6674,23 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
@@ -6716,24 +6698,24 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>66</v>
@@ -6741,21 +6723,21 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6763,10 +6745,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6774,10 +6756,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6785,10 +6767,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6796,34 +6778,34 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6831,34 +6813,34 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6868,21 +6850,21 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6890,23 +6872,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6914,30 +6896,30 @@
         <v>60</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AA75" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC75" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AB75" s="6" t="s">
+      <c r="AD75" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AC75" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD75" s="6" t="s">
-        <v>477</v>
-      </c>
       <c r="AE75" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>66</v>
@@ -6945,10 +6927,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6956,21 +6938,21 @@
         <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>66</v>
@@ -6978,10 +6960,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6989,24 +6971,24 @@
         <v>60</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>66</v>
@@ -7014,23 +6996,23 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
@@ -7038,24 +7020,24 @@
         <v>60</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>66</v>
@@ -7063,21 +7045,21 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7087,10 +7069,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7098,10 +7080,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7109,21 +7091,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7133,21 +7115,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -7155,23 +7137,23 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
@@ -7179,18 +7161,18 @@
         <v>60</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AA115" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>66</v>
@@ -7198,21 +7180,21 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -7220,10 +7202,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7231,23 +7213,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7255,15 +7237,15 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7343,20 +7325,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7367,10 +7349,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7378,7 +7360,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -7389,10 +7371,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7405,34 +7387,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7440,23 +7422,23 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
@@ -7464,39 +7446,39 @@
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG27" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AA27" s="6" t="s">
+      <c r="AH27" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>66</v>
@@ -7504,21 +7486,21 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7526,21 +7508,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7548,10 +7530,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7559,36 +7541,36 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
@@ -7596,39 +7578,39 @@
         <v>60</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD47" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE47" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF47" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG47" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AA47" s="6" t="s">
+      <c r="AH47" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="AB47" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="AC47" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="AD47" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="AE47" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="AF47" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="AG47" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="AH47" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>66</v>
@@ -7636,21 +7618,21 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7658,21 +7640,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7680,10 +7662,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7691,36 +7673,36 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7728,24 +7710,24 @@
         <v>60</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>66</v>
@@ -7753,10 +7735,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7764,34 +7746,34 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7799,21 +7781,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7821,23 +7803,23 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
@@ -7845,31 +7827,31 @@
         <v>60</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB87" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC87" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD87" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE87" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF87" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="AB87" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="AC87" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="AD87" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="AE87" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="AF87" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>66</v>
@@ -7877,21 +7859,21 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7899,21 +7881,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7921,10 +7903,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7932,36 +7914,36 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="11" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
@@ -7969,31 +7951,31 @@
         <v>60</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB107" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC107" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD107" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE107" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF107" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="AB107" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="AC107" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="AD107" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="AE107" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="AF107" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>66</v>
@@ -8001,21 +7983,21 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -8023,10 +8005,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -8034,10 +8016,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8045,10 +8027,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -8056,15 +8038,15 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -8137,20 +8119,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -8161,10 +8143,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8172,7 +8154,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -8183,10 +8165,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8199,23 +8181,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
@@ -8223,36 +8205,36 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="AG19" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="AA19" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="AE19" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG19" s="6" t="s">
-        <v>717</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>66</v>
@@ -8260,21 +8242,21 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -8282,20 +8264,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -8306,10 +8288,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -8322,10 +8304,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -8333,21 +8315,21 @@
         <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>66</v>
@@ -8355,21 +8337,21 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8379,10 +8361,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8390,10 +8372,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -8403,7 +8385,7 @@
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
+++ b/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="834">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -217,10 +217,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>slab ocean</t>
-  </si>
-  <si>
-    <t>mixed layer ocean</t>
+    <t>Slab ocean</t>
+  </si>
+  <si>
+    <t>Mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>SSH: Sea Surface Height</t>
+  </si>
+  <si>
+    <t>SSH</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -1040,24 +1043,27 @@
     <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
   </si>
   <si>
+    <t>Forward-backward</t>
+  </si>
+  <si>
+    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
+  </si>
+  <si>
+    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
+  </si>
+  <si>
+    <t>Predictor-corrector: Predictor-corrector scheme</t>
+  </si>
+  <si>
+    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
+  </si>
+  <si>
+    <t>AM3-LF: AM3-LF such as used in ROMS</t>
+  </si>
+  <si>
     <t>Forward-backward: Forward-backward scheme</t>
   </si>
   <si>
-    <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
-  </si>
-  <si>
-    <t>Leap-frog + Periodic Euler: Leap-frog scheme with Periodic Euler</t>
-  </si>
-  <si>
-    <t>Predictor-corrector: Predictor-corrector scheme</t>
-  </si>
-  <si>
-    <t>Runge-Kutta 2: Runge-Kutta 2 scheme</t>
-  </si>
-  <si>
-    <t>AM3-LF: AM3-LF such as used in ROMS</t>
-  </si>
-  <si>
     <t>Forward operator: Forward operator scheme</t>
   </si>
   <si>
@@ -1139,10 +1145,10 @@
     <t>None</t>
   </si>
   <si>
-    <t>split explicit</t>
-  </si>
-  <si>
-    <t>implicit</t>
+    <t>Split explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1466,12 +1472,15 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
+    <t>Bi-harmonic</t>
+  </si>
+  <si>
+    <t>Harmonic: Second order</t>
+  </si>
+  <si>
     <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
-    <t>Harmonic: Second order</t>
-  </si>
-  <si>
     <t>5.1.2.3 *</t>
   </si>
   <si>
@@ -1484,6 +1493,9 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
+    <t>Second order</t>
+  </si>
+  <si>
     <t>Second order: Second order</t>
   </si>
   <si>
@@ -1631,6 +1643,9 @@
     <t>cmip6.ocean.lateral_physics.tracers.operator.order</t>
   </si>
   <si>
+    <t>Harmonic</t>
+  </si>
+  <si>
     <t>5.2.2.3 *</t>
   </si>
   <si>
@@ -1710,6 +1725,9 @@
   </si>
   <si>
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
+  </si>
+  <si>
+    <t>GM</t>
   </si>
   <si>
     <t>GM: Gent &amp; McWilliams</t>
@@ -3161,20 +3179,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3185,10 +3203,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3196,7 +3214,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3207,10 +3225,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3223,10 +3241,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3234,10 +3252,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3245,10 +3263,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3256,10 +3274,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3269,15 +3287,15 @@
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3285,10 +3303,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3301,10 +3319,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3312,10 +3330,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3328,10 +3346,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3339,10 +3357,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3355,10 +3373,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3366,10 +3384,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3379,28 +3397,28 @@
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -3408,30 +3426,30 @@
         <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="AA48" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>66</v>
@@ -3439,23 +3457,23 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -3463,24 +3481,24 @@
         <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>66</v>
@@ -3488,23 +3506,23 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3512,22 +3530,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>66</v>
@@ -3535,21 +3553,21 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3559,10 +3577,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3570,10 +3588,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3586,10 +3604,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3597,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3613,23 +3631,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3637,19 +3655,19 @@
         <v>60</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>66</v>
@@ -3657,10 +3675,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3668,22 +3686,22 @@
         <v>60</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>66</v>
@@ -3691,10 +3709,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3702,10 +3720,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -4087,7 +4105,7 @@
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA32" s="6" t="s">
         <v>78</v>
@@ -4232,23 +4250,23 @@
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -4256,30 +4274,30 @@
         <v>60</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AB44" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD44" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="AE44" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF44" s="6" t="s">
         <v>66</v>
@@ -4287,10 +4305,10 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
@@ -4298,10 +4316,10 @@
         <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="24" customHeight="1">
@@ -4315,10 +4333,10 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
@@ -4326,27 +4344,27 @@
         <v>60</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
@@ -4354,27 +4372,27 @@
         <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
@@ -4382,18 +4400,18 @@
         <v>60</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA60" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AB60" s="6" t="s">
         <v>66</v>
@@ -4401,21 +4419,21 @@
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="24" customHeight="1">
@@ -4423,21 +4441,21 @@
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
@@ -4445,23 +4463,23 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
@@ -4469,30 +4487,30 @@
         <v>60</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA76" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD76" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF76" s="6" t="s">
         <v>66</v>
@@ -4500,21 +4518,21 @@
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="24" customHeight="1">
@@ -4524,10 +4542,10 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4535,10 +4553,10 @@
         <v>44</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4551,10 +4569,10 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -4562,10 +4580,10 @@
         <v>44</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4573,23 +4591,23 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -4597,10 +4615,10 @@
         <v>44</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4610,15 +4628,15 @@
     </row>
     <row r="98" spans="1:3" ht="178" customHeight="1">
       <c r="B98" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -4626,10 +4644,10 @@
         <v>44</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -4639,28 +4657,28 @@
     </row>
     <row r="103" spans="1:3" ht="178" customHeight="1">
       <c r="B103" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -4668,10 +4686,10 @@
         <v>44</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -4679,10 +4697,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -4690,10 +4708,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -4701,10 +4719,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -4712,10 +4730,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -4728,20 +4746,20 @@
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="A123" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="B124" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>43</v>
@@ -4752,10 +4770,10 @@
         <v>44</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -4763,10 +4781,10 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -4774,10 +4792,10 @@
         <v>44</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -4785,10 +4803,10 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -4796,10 +4814,10 @@
         <v>44</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -4807,21 +4825,21 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -4829,21 +4847,21 @@
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -4851,21 +4869,21 @@
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -4873,21 +4891,21 @@
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
@@ -4895,23 +4913,23 @@
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="A155" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="A158" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
@@ -4919,10 +4937,10 @@
         <v>44</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
@@ -4935,10 +4953,10 @@
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -4946,10 +4964,10 @@
         <v>44</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -4962,10 +4980,10 @@
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -4973,10 +4991,10 @@
         <v>44</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
@@ -4989,10 +5007,10 @@
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5000,10 +5018,10 @@
         <v>44</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="24" customHeight="1">
@@ -5016,23 +5034,23 @@
     </row>
     <row r="179" spans="1:32" ht="24" customHeight="1">
       <c r="A179" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:32" ht="24" customHeight="1">
       <c r="B180" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:32" ht="24" customHeight="1">
       <c r="A182" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="183" spans="1:32" ht="24" customHeight="1">
@@ -5040,10 +5058,10 @@
         <v>44</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:32" ht="24" customHeight="1">
@@ -5056,10 +5074,10 @@
     </row>
     <row r="187" spans="1:32" ht="24" customHeight="1">
       <c r="A187" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:32" ht="24" customHeight="1">
@@ -5067,10 +5085,10 @@
         <v>60</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="24" customHeight="1">
@@ -5081,19 +5099,19 @@
     <row r="190" spans="1:32" ht="24" customHeight="1">
       <c r="B190" s="11"/>
       <c r="AA190" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB190" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AC190" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AD190" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AE190" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF190" s="6" t="s">
         <v>66</v>
@@ -5101,10 +5119,10 @@
     </row>
     <row r="192" spans="1:32" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
@@ -5112,10 +5130,10 @@
         <v>44</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -5128,10 +5146,10 @@
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
       <c r="A197" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
@@ -5139,10 +5157,10 @@
         <v>44</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
@@ -5155,21 +5173,21 @@
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
@@ -5273,20 +5291,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5297,10 +5315,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5308,7 +5326,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5319,10 +5337,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5335,23 +5353,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
@@ -5359,52 +5377,52 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>66</v>
@@ -5412,21 +5430,21 @@
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5434,23 +5452,23 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
@@ -5458,22 +5476,22 @@
         <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>66</v>
@@ -5481,10 +5499,10 @@
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
@@ -5492,25 +5510,25 @@
         <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>66</v>
@@ -5518,10 +5536,10 @@
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
@@ -5529,27 +5547,27 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AE39" s="6" t="s">
         <v>66</v>
@@ -5593,20 +5611,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5617,10 +5635,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5628,7 +5646,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5639,10 +5657,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5655,10 +5673,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5666,22 +5684,22 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>66</v>
@@ -5689,23 +5707,23 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -5713,36 +5731,36 @@
         <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AH23" s="6" t="s">
         <v>66</v>
@@ -5750,21 +5768,21 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5772,23 +5790,23 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
@@ -5796,19 +5814,19 @@
         <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AC35" s="6" t="s">
         <v>66</v>
@@ -5816,10 +5834,10 @@
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
@@ -5827,34 +5845,34 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD39" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AG39" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AH39" s="6" t="s">
         <v>66</v>
@@ -5862,21 +5880,21 @@
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5884,23 +5902,23 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -5908,22 +5926,22 @@
         <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>66</v>
@@ -5931,21 +5949,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5953,23 +5971,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5977,10 +5995,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -6033,20 +6051,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6057,10 +6075,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6068,7 +6086,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6079,10 +6097,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6092,28 +6110,28 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
@@ -6121,29 +6139,29 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6151,34 +6169,34 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -6186,34 +6204,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6221,21 +6239,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -6245,21 +6263,21 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6267,7 +6285,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6278,23 +6296,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6302,10 +6320,10 @@
         <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6316,16 +6334,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>66</v>
@@ -6333,10 +6351,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6344,10 +6362,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6355,20 +6373,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6379,10 +6397,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6390,21 +6408,21 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -6457,20 +6475,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6481,10 +6499,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6492,7 +6510,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6503,10 +6521,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6519,10 +6537,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -6530,43 +6548,43 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6574,30 +6592,30 @@
         <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AB23" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE23" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>66</v>
@@ -6605,10 +6623,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6616,21 +6634,21 @@
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>66</v>
@@ -6638,10 +6656,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6649,24 +6667,24 @@
         <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>66</v>
@@ -6674,23 +6692,23 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
@@ -6698,24 +6716,24 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>66</v>
@@ -6723,21 +6741,21 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6745,10 +6763,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6756,10 +6774,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6767,10 +6785,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6778,34 +6796,34 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6813,34 +6831,34 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6850,21 +6868,21 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6872,23 +6890,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6896,30 +6914,30 @@
         <v>60</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA75" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AA75" s="6" t="s">
-        <v>472</v>
-      </c>
       <c r="AB75" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD75" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE75" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="AC75" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AD75" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE75" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>66</v>
@@ -6927,10 +6945,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6938,21 +6956,21 @@
         <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>66</v>
@@ -6960,10 +6978,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6971,24 +6989,24 @@
         <v>60</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>66</v>
@@ -6996,23 +7014,23 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
@@ -7020,24 +7038,24 @@
         <v>60</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>66</v>
@@ -7045,21 +7063,21 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7069,10 +7087,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7080,10 +7098,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7091,21 +7109,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7115,21 +7133,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -7137,23 +7155,23 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
@@ -7161,18 +7179,18 @@
         <v>60</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AA115" s="6" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>66</v>
@@ -7180,21 +7198,21 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -7202,10 +7220,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7213,23 +7231,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7237,15 +7255,15 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
       <c r="B127" s="11" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -7325,20 +7343,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7349,10 +7367,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7360,7 +7378,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -7371,10 +7389,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7387,34 +7405,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7422,23 +7440,23 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
@@ -7446,39 +7464,39 @@
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>66</v>
@@ -7486,21 +7504,21 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7508,21 +7526,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7530,10 +7548,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7541,36 +7559,36 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
@@ -7578,39 +7596,39 @@
         <v>60</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>66</v>
@@ -7618,21 +7636,21 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7640,21 +7658,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7662,10 +7680,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7673,36 +7691,36 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7710,24 +7728,24 @@
         <v>60</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>66</v>
@@ -7735,10 +7753,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7746,34 +7764,34 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7781,21 +7799,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7803,23 +7821,23 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
@@ -7827,31 +7845,31 @@
         <v>60</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>66</v>
@@ -7859,21 +7877,21 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7881,21 +7899,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7903,10 +7921,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7914,36 +7932,36 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="11" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
@@ -7951,31 +7969,31 @@
         <v>60</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>66</v>
@@ -7983,21 +8001,21 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -8005,10 +8023,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -8016,10 +8034,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8027,10 +8045,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -8038,15 +8056,15 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -8119,20 +8137,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -8143,10 +8161,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8154,7 +8172,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -8165,10 +8183,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8181,23 +8199,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
@@ -8205,36 +8223,36 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>66</v>
@@ -8242,21 +8260,21 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -8264,20 +8282,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -8288,10 +8306,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -8304,10 +8322,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -8315,21 +8333,21 @@
         <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>66</v>
@@ -8337,21 +8355,21 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8361,10 +8379,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8372,10 +8390,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -8385,7 +8403,7 @@
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
+++ b/cmip6/models/gfdl-cm4/cmip6_noaa-gfdl_gfdl-cm4_ocean.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="825">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -217,10 +217,10 @@
     <t>OGCM</t>
   </si>
   <si>
-    <t>Slab ocean</t>
-  </si>
-  <si>
-    <t>Mixed layer ocean</t>
+    <t>slab ocean</t>
+  </si>
+  <si>
+    <t>mixed layer ocean</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t>SSH: Sea Surface Height</t>
-  </si>
-  <si>
-    <t>SSH</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -962,9 +959,6 @@
     <t>cmip6.ocean.grid.discretisation.horizontal.scheme</t>
   </si>
   <si>
-    <t>Other: finite differences</t>
-  </si>
-  <si>
     <t>Finite difference</t>
   </si>
   <si>
@@ -1043,7 +1037,7 @@
     <t>cmip6.ocean.timestepping_framework.tracers.scheme</t>
   </si>
   <si>
-    <t>Forward-backward</t>
+    <t>Forward-backward: Forward-backward scheme</t>
   </si>
   <si>
     <t>Leap-frog + Asselin filter: Leap-frog scheme with Asselin filter</t>
@@ -1061,9 +1055,6 @@
     <t>AM3-LF: AM3-LF such as used in ROMS</t>
   </si>
   <si>
-    <t>Forward-backward: Forward-backward scheme</t>
-  </si>
-  <si>
     <t>Forward operator: Forward operator scheme</t>
   </si>
   <si>
@@ -1145,10 +1136,10 @@
     <t>None</t>
   </si>
   <si>
-    <t>Split explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
+    <t>split explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
   </si>
   <si>
     <t xml:space="preserve">3.4.1.2 </t>
@@ -1472,15 +1463,12 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
   </si>
   <si>
-    <t>Bi-harmonic</t>
+    <t>Bi-harmonic: Fourth order</t>
   </si>
   <si>
     <t>Harmonic: Second order</t>
   </si>
   <si>
-    <t>Bi-harmonic: Fourth order</t>
-  </si>
-  <si>
     <t>5.1.2.3 *</t>
   </si>
   <si>
@@ -1493,9 +1481,6 @@
     <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
   </si>
   <si>
-    <t>Second order</t>
-  </si>
-  <si>
     <t>Second order: Second order</t>
   </si>
   <si>
@@ -1643,9 +1628,6 @@
     <t>cmip6.ocean.lateral_physics.tracers.operator.order</t>
   </si>
   <si>
-    <t>Harmonic</t>
-  </si>
-  <si>
     <t>5.2.2.3 *</t>
   </si>
   <si>
@@ -1727,9 +1709,6 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
   </si>
   <si>
-    <t>GM</t>
-  </si>
-  <si>
     <t>GM: Gent &amp; McWilliams</t>
   </si>
   <si>
@@ -1772,9 +1751,6 @@
     <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.added_diffusivity</t>
   </si>
   <si>
-    <t>Flow dependent</t>
-  </si>
-  <si>
     <t>6.1.1</t>
   </si>
   <si>
@@ -2253,9 +2229,6 @@
   </si>
   <si>
     <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.sill_overflow</t>
-  </si>
-  <si>
-    <t>Specific treatment</t>
   </si>
   <si>
     <t>8.1.1</t>
@@ -3179,20 +3152,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -3203,10 +3176,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3214,7 +3187,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3225,10 +3198,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3241,10 +3214,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3252,10 +3225,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3263,10 +3236,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3274,10 +3247,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -3287,15 +3260,15 @@
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
       <c r="B20" s="11" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3303,10 +3276,10 @@
         <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3319,10 +3292,10 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3330,10 +3303,10 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
@@ -3346,10 +3319,10 @@
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -3357,10 +3330,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -3373,10 +3346,10 @@
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -3384,10 +3357,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
@@ -3397,28 +3370,28 @@
     </row>
     <row r="40" spans="1:32" ht="178" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -3426,30 +3399,30 @@
         <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="B48" s="11" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="AA48" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AF48" s="6" t="s">
         <v>66</v>
@@ -3457,23 +3430,23 @@
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -3481,24 +3454,24 @@
         <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="AD56" s="6" t="s">
         <v>66</v>
@@ -3506,23 +3479,23 @@
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3530,22 +3503,22 @@
         <v>60</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>66</v>
@@ -3553,21 +3526,21 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
@@ -3577,10 +3550,10 @@
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -3588,10 +3561,10 @@
         <v>44</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
@@ -3604,10 +3577,10 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
@@ -3615,10 +3588,10 @@
         <v>44</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -3631,23 +3604,23 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
       <c r="B82" s="13" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="84" spans="1:30" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
@@ -3655,19 +3628,19 @@
         <v>60</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="AC86" s="6" t="s">
         <v>66</v>
@@ -3675,10 +3648,10 @@
     </row>
     <row r="88" spans="1:30" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
@@ -3686,22 +3659,22 @@
         <v>60</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
       <c r="B90" s="11"/>
       <c r="AA90" s="6" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="AD90" s="6" t="s">
         <v>66</v>
@@ -3709,10 +3682,10 @@
     </row>
     <row r="92" spans="1:30" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
@@ -3720,10 +3693,10 @@
         <v>44</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
@@ -4105,7 +4078,7 @@
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA32" s="6" t="s">
         <v>78</v>
@@ -4250,23 +4223,23 @@
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -4274,30 +4247,30 @@
         <v>60</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="AA44" s="6" t="s">
+      <c r="AB44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AB44" s="6" t="s">
+      <c r="AC44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AC44" s="6" t="s">
+      <c r="AD44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE44" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="AD44" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE44" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="AF44" s="6" t="s">
         <v>66</v>
@@ -4305,10 +4278,10 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
@@ -4316,10 +4289,10 @@
         <v>60</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="24" customHeight="1">
@@ -4333,10 +4306,10 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
@@ -4344,27 +4317,27 @@
         <v>60</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB52" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="AB52" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
@@ -4372,27 +4345,27 @@
         <v>60</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB56" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="AB56" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
@@ -4400,18 +4373,18 @@
         <v>60</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="24" customHeight="1">
       <c r="B60" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA60" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB60" s="6" t="s">
         <v>66</v>
@@ -4419,21 +4392,21 @@
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
       <c r="A63" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="24" customHeight="1">
@@ -4441,21 +4414,21 @@
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
@@ -4463,23 +4436,23 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
@@ -4487,30 +4460,30 @@
         <v>60</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="B76" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA76" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB76" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AA76" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB76" s="6" t="s">
+      <c r="AC76" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AC76" s="6" t="s">
+      <c r="AD76" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AD76" s="6" t="s">
+      <c r="AE76" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="AE76" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="AF76" s="6" t="s">
         <v>66</v>
@@ -4518,21 +4491,21 @@
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="A79" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="24" customHeight="1">
@@ -4542,10 +4515,10 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
@@ -4553,10 +4526,10 @@
         <v>44</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
@@ -4569,10 +4542,10 @@
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -4580,10 +4553,10 @@
         <v>44</v>
       </c>
       <c r="B88" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -4591,23 +4564,23 @@
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="A92" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="B93" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -4615,10 +4588,10 @@
         <v>44</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -4628,15 +4601,15 @@
     </row>
     <row r="98" spans="1:3" ht="178" customHeight="1">
       <c r="B98" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="A100" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -4644,10 +4617,10 @@
         <v>44</v>
       </c>
       <c r="B101" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
@@ -4657,28 +4630,28 @@
     </row>
     <row r="103" spans="1:3" ht="178" customHeight="1">
       <c r="B103" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
@@ -4686,10 +4659,10 @@
         <v>44</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -4697,10 +4670,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -4708,10 +4681,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -4719,10 +4692,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -4730,10 +4703,10 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -4746,20 +4719,20 @@
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="A123" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="B124" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>43</v>
@@ -4770,10 +4743,10 @@
         <v>44</v>
       </c>
       <c r="B127" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
@@ -4781,10 +4754,10 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -4792,10 +4765,10 @@
         <v>44</v>
       </c>
       <c r="B131" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
@@ -4803,10 +4776,10 @@
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -4814,10 +4787,10 @@
         <v>44</v>
       </c>
       <c r="B135" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
@@ -4825,21 +4798,21 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -4847,21 +4820,21 @@
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="A143" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B143" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -4869,21 +4842,21 @@
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -4891,21 +4864,21 @@
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
       <c r="A150" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="A151" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B151" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
@@ -4913,23 +4886,23 @@
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
       <c r="A155" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="A158" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
@@ -4937,10 +4910,10 @@
         <v>44</v>
       </c>
       <c r="B159" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
@@ -4953,10 +4926,10 @@
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
       <c r="A163" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
@@ -4964,10 +4937,10 @@
         <v>44</v>
       </c>
       <c r="B164" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -4980,10 +4953,10 @@
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
@@ -4991,10 +4964,10 @@
         <v>44</v>
       </c>
       <c r="B169" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
@@ -5007,10 +4980,10 @@
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -5018,10 +4991,10 @@
         <v>44</v>
       </c>
       <c r="B174" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="24" customHeight="1">
@@ -5034,23 +5007,23 @@
     </row>
     <row r="179" spans="1:32" ht="24" customHeight="1">
       <c r="A179" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="180" spans="1:32" ht="24" customHeight="1">
       <c r="B180" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="182" spans="1:32" ht="24" customHeight="1">
       <c r="A182" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:32" ht="24" customHeight="1">
@@ -5058,10 +5031,10 @@
         <v>44</v>
       </c>
       <c r="B183" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C183" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:32" ht="24" customHeight="1">
@@ -5074,10 +5047,10 @@
     </row>
     <row r="187" spans="1:32" ht="24" customHeight="1">
       <c r="A187" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:32" ht="24" customHeight="1">
@@ -5085,10 +5058,10 @@
         <v>60</v>
       </c>
       <c r="B188" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C188" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:32" ht="24" customHeight="1">
@@ -5099,19 +5072,19 @@
     <row r="190" spans="1:32" ht="24" customHeight="1">
       <c r="B190" s="11"/>
       <c r="AA190" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB190" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AB190" s="6" t="s">
+      <c r="AC190" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="AC190" s="6" t="s">
+      <c r="AD190" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AD190" s="6" t="s">
+      <c r="AE190" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="AE190" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="AF190" s="6" t="s">
         <v>66</v>
@@ -5119,10 +5092,10 @@
     </row>
     <row r="192" spans="1:32" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
@@ -5130,10 +5103,10 @@
         <v>44</v>
       </c>
       <c r="B193" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="24" customHeight="1">
@@ -5146,10 +5119,10 @@
     </row>
     <row r="197" spans="1:3" ht="24" customHeight="1">
       <c r="A197" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>250</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
@@ -5157,10 +5130,10 @@
         <v>44</v>
       </c>
       <c r="B198" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="C198" s="10" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="24" customHeight="1">
@@ -5173,21 +5146,21 @@
     </row>
     <row r="202" spans="1:3" ht="24" customHeight="1">
       <c r="A202" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B203" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C203" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="24" customHeight="1">
@@ -5291,20 +5264,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5315,10 +5288,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5326,7 +5299,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5337,10 +5310,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5353,23 +5326,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="24" customHeight="1">
@@ -5377,52 +5350,52 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AC19" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AD19" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AE19" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AF19" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AG19" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AH19" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AI19" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AI19" s="6" t="s">
+      <c r="AJ19" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AK19" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AK19" s="6" t="s">
+      <c r="AL19" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AM19" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="AM19" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>66</v>
@@ -5430,21 +5403,21 @@
     </row>
     <row r="21" spans="1:40" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="24" customHeight="1">
@@ -5452,23 +5425,23 @@
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="24" customHeight="1">
@@ -5476,22 +5449,22 @@
         <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB31" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="AB31" s="6" t="s">
+      <c r="AC31" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>66</v>
@@ -5499,10 +5472,10 @@
     </row>
     <row r="33" spans="1:31" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="24" customHeight="1">
@@ -5510,25 +5483,25 @@
         <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB35" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="AB35" s="6" t="s">
+      <c r="AC35" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="AC35" s="6" t="s">
+      <c r="AD35" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>66</v>
@@ -5536,10 +5509,10 @@
     </row>
     <row r="37" spans="1:31" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" customHeight="1">
@@ -5547,27 +5520,25 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C38" s="10" t="s">
+    </row>
+    <row r="39" spans="1:31" ht="24" customHeight="1">
+      <c r="B39" s="11"/>
+      <c r="AA39" s="6" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
+      <c r="AB39" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="AA39" s="6" t="s">
+      <c r="AC39" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AB39" s="6" t="s">
+      <c r="AD39" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="AE39" s="6" t="s">
         <v>66</v>
@@ -5611,20 +5582,20 @@
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -5635,10 +5606,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="24" customHeight="1">
@@ -5646,7 +5617,7 @@
     </row>
     <row r="8" spans="1:30" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5657,10 +5628,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="24" customHeight="1">
@@ -5673,10 +5644,10 @@
     </row>
     <row r="13" spans="1:30" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="24" customHeight="1">
@@ -5684,22 +5655,22 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC15" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="AB15" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="AD15" s="6" t="s">
         <v>66</v>
@@ -5707,23 +5678,23 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
@@ -5731,36 +5702,36 @@
         <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AC23" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AB23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AE23" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG23" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="AH23" s="6" t="s">
         <v>66</v>
@@ -5768,21 +5739,21 @@
     </row>
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
@@ -5790,23 +5761,23 @@
     </row>
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
@@ -5814,19 +5785,19 @@
         <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AC35" s="6" t="s">
         <v>66</v>
@@ -5834,10 +5805,10 @@
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
@@ -5845,34 +5816,34 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
       <c r="B39" s="11"/>
       <c r="AA39" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC39" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AB39" s="6" t="s">
+      <c r="AD39" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AC39" s="6" t="s">
+      <c r="AE39" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AF39" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG39" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="AE39" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="AH39" s="6" t="s">
         <v>66</v>
@@ -5880,21 +5851,21 @@
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
@@ -5902,23 +5873,23 @@
     </row>
     <row r="46" spans="1:34" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -5926,22 +5897,22 @@
         <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>66</v>
@@ -5949,21 +5920,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -5971,23 +5942,23 @@
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -5995,10 +5966,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -6051,20 +6022,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6075,10 +6046,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6086,7 +6057,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6097,10 +6068,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6110,28 +6081,28 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="24" customHeight="1">
@@ -6139,29 +6110,29 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="24" customHeight="1">
@@ -6169,34 +6140,34 @@
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="24" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="24" customHeight="1">
@@ -6204,34 +6175,34 @@
     </row>
     <row r="30" spans="1:28" ht="24" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="24" customHeight="1">
       <c r="B31" s="13" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -6239,21 +6210,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -6263,21 +6234,21 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -6285,7 +6256,7 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>43</v>
@@ -6296,23 +6267,23 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6320,10 +6291,10 @@
         <v>60</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
@@ -6334,16 +6305,16 @@
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11"/>
       <c r="AA52" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD52" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="AB52" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC52" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="AD52" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>66</v>
@@ -6351,10 +6322,10 @@
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6362,10 +6333,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6373,20 +6344,20 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>43</v>
@@ -6397,10 +6368,10 @@
         <v>44</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6408,27 +6379,25 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B68" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6475,20 +6444,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -6499,10 +6468,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -6510,7 +6479,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6521,10 +6490,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -6537,10 +6506,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -6548,43 +6517,43 @@
         <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
@@ -6592,30 +6561,30 @@
         <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="B23" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC23" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AB23" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>477</v>
-      </c>
       <c r="AE23" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AF23" s="6" t="s">
         <v>66</v>
@@ -6623,10 +6592,10 @@
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
@@ -6634,21 +6603,21 @@
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>66</v>
@@ -6656,10 +6625,10 @@
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -6667,24 +6636,24 @@
         <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>66</v>
@@ -6692,23 +6661,23 @@
     </row>
     <row r="34" spans="1:30" ht="24" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="B35" s="13" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
@@ -6716,24 +6685,24 @@
         <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>66</v>
@@ -6741,21 +6710,21 @@
     </row>
     <row r="41" spans="1:30" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="24" customHeight="1">
@@ -6763,10 +6732,10 @@
     </row>
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="24" customHeight="1">
@@ -6774,10 +6743,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
@@ -6785,10 +6754,10 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -6796,34 +6765,34 @@
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -6831,34 +6800,34 @@
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -6868,21 +6837,21 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6890,23 +6859,23 @@
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
@@ -6914,30 +6883,30 @@
         <v>60</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
       <c r="B75" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AA75" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC75" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD75" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AB75" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC75" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD75" s="6" t="s">
-        <v>477</v>
-      </c>
       <c r="AE75" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>66</v>
@@ -6945,10 +6914,10 @@
     </row>
     <row r="77" spans="1:32" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="24" customHeight="1">
@@ -6956,21 +6925,21 @@
         <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="AC79" s="6" t="s">
         <v>66</v>
@@ -6978,10 +6947,10 @@
     </row>
     <row r="81" spans="1:30" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="24" customHeight="1">
@@ -6989,24 +6958,24 @@
         <v>60</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
       <c r="B83" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AA83" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>66</v>
@@ -7014,23 +6983,23 @@
     </row>
     <row r="86" spans="1:30" ht="24" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
       <c r="B87" s="13" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="24" customHeight="1">
@@ -7038,24 +7007,24 @@
         <v>60</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AD91" s="6" t="s">
         <v>66</v>
@@ -7063,21 +7032,21 @@
     </row>
     <row r="93" spans="1:30" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="24" customHeight="1">
@@ -7087,10 +7056,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7098,10 +7067,10 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7109,21 +7078,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7133,21 +7102,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -7155,23 +7124,23 @@
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="13" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
@@ -7179,18 +7148,18 @@
         <v>60</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="11" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AA115" s="6" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AB115" s="6" t="s">
         <v>66</v>
@@ -7198,21 +7167,21 @@
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -7220,10 +7189,10 @@
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
@@ -7231,23 +7200,23 @@
         <v>44</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="B123" s="11" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
@@ -7255,16 +7224,14 @@
         <v>44</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
-      <c r="B127" s="11" t="s">
-        <v>581</v>
-      </c>
+      <c r="B127" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="18">
@@ -7343,20 +7310,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -7367,10 +7334,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7378,7 +7345,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -7389,10 +7356,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7405,34 +7372,34 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
@@ -7440,23 +7407,23 @@
     </row>
     <row r="22" spans="1:35" ht="24" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
       <c r="B23" s="13" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
@@ -7464,39 +7431,39 @@
         <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="AE27" s="6" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="AF27" s="6" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="AI27" s="6" t="s">
         <v>66</v>
@@ -7504,21 +7471,21 @@
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
@@ -7526,21 +7493,21 @@
     </row>
     <row r="33" spans="1:35" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -7548,10 +7515,10 @@
     </row>
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
@@ -7559,36 +7526,36 @@
         <v>44</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="24" customHeight="1">
       <c r="B39" s="11" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:35" ht="24" customHeight="1">
       <c r="B43" s="13" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:35" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:35" ht="24" customHeight="1">
@@ -7596,39 +7563,39 @@
         <v>60</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:35" ht="24" customHeight="1">
       <c r="B47" s="11" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AA47" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="AF47" s="6" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="AH47" s="6" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="AI47" s="6" t="s">
         <v>66</v>
@@ -7636,21 +7603,21 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -7658,21 +7625,21 @@
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -7680,10 +7647,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -7691,36 +7658,36 @@
         <v>44</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7728,24 +7695,24 @@
         <v>60</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>66</v>
@@ -7753,10 +7720,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7764,34 +7731,34 @@
         <v>44</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7799,21 +7766,21 @@
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7821,23 +7788,23 @@
     </row>
     <row r="82" spans="1:33" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83" spans="1:33" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="85" spans="1:33" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:33" ht="24" customHeight="1">
@@ -7845,31 +7812,31 @@
         <v>60</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87" spans="1:33" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="AE87" s="6" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="AF87" s="6" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="AG87" s="6" t="s">
         <v>66</v>
@@ -7877,21 +7844,21 @@
     </row>
     <row r="89" spans="1:33" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91" spans="1:33" ht="24" customHeight="1">
@@ -7899,21 +7866,21 @@
     </row>
     <row r="93" spans="1:33" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:33" ht="24" customHeight="1">
@@ -7921,10 +7888,10 @@
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -7932,36 +7899,36 @@
         <v>44</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="24" customHeight="1">
       <c r="B99" s="11" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:33" ht="24" customHeight="1">
@@ -7969,31 +7936,31 @@
         <v>60</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
       <c r="B107" s="11"/>
       <c r="AA107" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AB107" s="6" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="AD107" s="6" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="AE107" s="6" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="AF107" s="6" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="AG107" s="6" t="s">
         <v>66</v>
@@ -8001,21 +7968,21 @@
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="111" spans="1:33" ht="24" customHeight="1">
@@ -8023,10 +7990,10 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
@@ -8034,10 +8001,10 @@
         <v>44</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8045,10 +8012,10 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
@@ -8056,16 +8023,14 @@
         <v>44</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11" t="s">
-        <v>639</v>
-      </c>
+      <c r="B119" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="15">
@@ -8137,20 +8102,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
@@ -8161,10 +8126,10 @@
         <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8172,7 +8137,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -8183,10 +8148,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8199,23 +8164,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
@@ -8223,36 +8188,36 @@
         <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="AH19" s="6" t="s">
         <v>66</v>
@@ -8260,21 +8225,21 @@
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -8282,20 +8247,20 @@
     </row>
     <row r="26" spans="1:34" ht="24" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="B27" s="13" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -8306,10 +8271,10 @@
         <v>44</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1">
@@ -8322,10 +8287,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -8333,21 +8298,21 @@
         <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>66</v>
@@ -8355,21 +8320,21 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -8379,10 +8344,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -8390,10 +8355,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -8402,9 +8367,7 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="178" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>742</v>
-      </c>
+      <c r="B45" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
